--- a/data/MOTU/lista_MOTU.xlsx
+++ b/data/MOTU/lista_MOTU.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6a14629e1bd2b3dd/Documentos/Antigravity/el-oraculo-de-eternia/data/MOTU/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6a14629e1bd2b3dd/Documentos/Antigravity/oraculo-nueva-eternia/data/MOTU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_16DCE5F45C0EE905FBE1ECA05A800FE013191ACE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D846758-7B69-4DC7-9C84-9B2EB9CFEEEA}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_16DCE5F45C0EE905FBE1ECA05A800FE013191ACE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B07D96C-1805-4F15-824A-EA8AB50C1F3E}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="19635" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5202,10 +5202,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -5495,13 +5491,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9712,7 +9709,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -9890,6 +9889,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -12548,7 +12550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
@@ -13351,6 +13353,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -13530,7 +13535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
@@ -15327,7 +15332,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -15544,7 +15551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/data/MOTU/lista_MOTU.xlsx
+++ b/data/MOTU/lista_MOTU.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="2172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4007" uniqueCount="2172">
   <si>
     <t>Origins Action Figures Checklist</t>
   </si>

--- a/data/MOTU/lista_MOTU.xlsx
+++ b/data/MOTU/lista_MOTU.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4309" uniqueCount="2172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="2172">
   <si>
     <t>Origins Action Figures Checklist</t>
   </si>
@@ -7030,7 +7030,7 @@
       <c r="J3">
         <v>14.99</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" t="s">
         <v>425</v>
       </c>
       <c r="L3" t="s">
@@ -7083,7 +7083,7 @@
       <c r="J4">
         <v>14.99</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" t="s">
         <v>425</v>
       </c>
       <c r="L4" t="s">
@@ -7136,7 +7136,7 @@
       <c r="J5">
         <v>14.99</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" t="s">
         <v>425</v>
       </c>
       <c r="L5" t="s">
@@ -7189,7 +7189,7 @@
       <c r="J6">
         <v>14.99</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" t="s">
         <v>425</v>
       </c>
       <c r="L6" t="s">
@@ -7242,7 +7242,7 @@
       <c r="J7">
         <v>14.99</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" t="s">
         <v>425</v>
       </c>
       <c r="L7" t="s">
@@ -7295,7 +7295,7 @@
       <c r="J8">
         <v>14.99</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" t="s">
         <v>425</v>
       </c>
       <c r="L8" t="s">
@@ -7348,7 +7348,7 @@
       <c r="J9">
         <v>14.99</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" t="s">
         <v>425</v>
       </c>
       <c r="L9" t="s">
@@ -7401,7 +7401,7 @@
       <c r="J10">
         <v>14.99</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" t="s">
         <v>425</v>
       </c>
       <c r="L10" t="s">
@@ -7454,7 +7454,7 @@
       <c r="J11">
         <v>14.99</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" t="s">
         <v>425</v>
       </c>
       <c r="L11" t="s">
@@ -7507,7 +7507,7 @@
       <c r="J12">
         <v>14.99</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" t="s">
         <v>425</v>
       </c>
       <c r="L12" t="s">
@@ -7560,7 +7560,7 @@
       <c r="J13">
         <v>14.99</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" t="s">
         <v>425</v>
       </c>
       <c r="L13" t="s">
@@ -7613,7 +7613,7 @@
       <c r="J14">
         <v>14.99</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" t="s">
         <v>425</v>
       </c>
       <c r="L14" t="s">
@@ -7666,7 +7666,7 @@
       <c r="J15">
         <v>14.99</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" t="s">
         <v>425</v>
       </c>
       <c r="L15" t="s">
@@ -7719,7 +7719,7 @@
       <c r="J16">
         <v>14.99</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" t="s">
         <v>425</v>
       </c>
       <c r="L16" t="s">
@@ -7772,7 +7772,7 @@
       <c r="J17">
         <v>14.99</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" t="s">
         <v>425</v>
       </c>
       <c r="L17" t="s">
@@ -7825,7 +7825,7 @@
       <c r="J18">
         <v>14.99</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" t="s">
         <v>425</v>
       </c>
       <c r="L18" t="s">
@@ -7878,7 +7878,7 @@
       <c r="J19">
         <v>14.99</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" t="s">
         <v>425</v>
       </c>
       <c r="L19" t="s">
@@ -7931,7 +7931,7 @@
       <c r="J20">
         <v>14.99</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" t="s">
         <v>425</v>
       </c>
       <c r="L20" t="s">
@@ -7981,7 +7981,7 @@
       <c r="J21">
         <v>14.99</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" t="s">
         <v>425</v>
       </c>
       <c r="L21" t="s">
@@ -8031,7 +8031,7 @@
       <c r="J22">
         <v>14.99</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" t="s">
         <v>425</v>
       </c>
       <c r="L22" t="s">
@@ -8084,7 +8084,7 @@
       <c r="J23">
         <v>14.99</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" t="s">
         <v>425</v>
       </c>
       <c r="L23" t="s">
@@ -8137,7 +8137,7 @@
       <c r="J24">
         <v>14.99</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" t="s">
         <v>425</v>
       </c>
       <c r="L24" t="s">
@@ -8190,7 +8190,7 @@
       <c r="J25">
         <v>14.99</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" t="s">
         <v>425</v>
       </c>
       <c r="L25" t="s">
@@ -8243,7 +8243,7 @@
       <c r="J26">
         <v>14.99</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" t="s">
         <v>425</v>
       </c>
       <c r="L26" t="s">
@@ -8296,7 +8296,7 @@
       <c r="J27">
         <v>14.99</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" t="s">
         <v>425</v>
       </c>
       <c r="L27" t="s">
@@ -8349,7 +8349,7 @@
       <c r="J28">
         <v>14.99</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" t="s">
         <v>425</v>
       </c>
       <c r="L28" t="s">
@@ -8402,7 +8402,7 @@
       <c r="J29">
         <v>14.99</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" t="s">
         <v>425</v>
       </c>
       <c r="L29" t="s">
@@ -8455,7 +8455,7 @@
       <c r="J30">
         <v>14.99</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" t="s">
         <v>425</v>
       </c>
       <c r="L30" t="s">
@@ -8508,7 +8508,7 @@
       <c r="J31">
         <v>18.99</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" t="s">
         <v>425</v>
       </c>
       <c r="L31" t="s">
@@ -8561,7 +8561,7 @@
       <c r="J32">
         <v>18.99</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" t="s">
         <v>425</v>
       </c>
       <c r="L32" t="s">
@@ -8614,7 +8614,7 @@
       <c r="J33">
         <v>18.99</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" t="s">
         <v>425</v>
       </c>
       <c r="L33" t="s">
@@ -8667,7 +8667,7 @@
       <c r="J34">
         <v>18.99</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" t="s">
         <v>425</v>
       </c>
       <c r="L34" t="s">
@@ -8720,7 +8720,7 @@
       <c r="J35">
         <v>18.99</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="K35" t="s">
         <v>425</v>
       </c>
       <c r="L35" t="s">
@@ -8773,7 +8773,7 @@
       <c r="J36">
         <v>18.99</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K36" t="s">
         <v>425</v>
       </c>
       <c r="L36" t="s">
@@ -8826,7 +8826,7 @@
       <c r="J37">
         <v>18.99</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="K37" t="s">
         <v>425</v>
       </c>
       <c r="L37" t="s">
@@ -8879,7 +8879,7 @@
       <c r="J38">
         <v>18.99</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" t="s">
         <v>425</v>
       </c>
       <c r="L38" t="s">
@@ -8932,7 +8932,7 @@
       <c r="J39">
         <v>18.99</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="K39" t="s">
         <v>425</v>
       </c>
       <c r="L39" t="s">
@@ -8985,7 +8985,7 @@
       <c r="J40">
         <v>18.99</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" t="s">
         <v>425</v>
       </c>
       <c r="L40" t="s">
@@ -9038,7 +9038,7 @@
       <c r="J41">
         <v>18.99</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="K41" t="s">
         <v>425</v>
       </c>
       <c r="L41" t="s">
@@ -9091,7 +9091,7 @@
       <c r="J42">
         <v>18.99</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" t="s">
         <v>425</v>
       </c>
       <c r="L42" t="s">
@@ -9144,7 +9144,7 @@
       <c r="J43">
         <v>19.99</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K43" t="s">
         <v>425</v>
       </c>
       <c r="L43" t="s">
@@ -9197,7 +9197,7 @@
       <c r="J44">
         <v>19.99</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K44" t="s">
         <v>425</v>
       </c>
       <c r="L44" t="s">
@@ -9250,7 +9250,7 @@
       <c r="J45">
         <v>19.99</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="K45" t="s">
         <v>425</v>
       </c>
       <c r="L45" t="s">
@@ -9303,7 +9303,7 @@
       <c r="J46">
         <v>19.99</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="K46" t="s">
         <v>425</v>
       </c>
       <c r="L46" t="s">
@@ -9356,7 +9356,7 @@
       <c r="J47">
         <v>17.99</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K47" t="s">
         <v>425</v>
       </c>
       <c r="L47" t="s">
@@ -9409,7 +9409,7 @@
       <c r="J48">
         <v>17.99</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K48" t="s">
         <v>425</v>
       </c>
       <c r="L48" t="s">
@@ -9462,7 +9462,7 @@
       <c r="J49">
         <v>17.99</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K49" t="s">
         <v>425</v>
       </c>
       <c r="L49" t="s">
@@ -9515,7 +9515,7 @@
       <c r="J50">
         <v>17.99</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="K50" t="s">
         <v>425</v>
       </c>
       <c r="L50" t="s">
@@ -9568,7 +9568,7 @@
       <c r="J51">
         <v>18</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K51" t="s">
         <v>425</v>
       </c>
       <c r="L51" t="s">
@@ -9621,7 +9621,7 @@
       <c r="J52">
         <v>17.99</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="K52" t="s">
         <v>425</v>
       </c>
       <c r="L52" t="s">
@@ -9674,7 +9674,7 @@
       <c r="J53">
         <v>17.99</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="K53" t="s">
         <v>425</v>
       </c>
       <c r="L53" t="s">
@@ -9727,7 +9727,7 @@
       <c r="J54">
         <v>17.99</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="K54" t="s">
         <v>425</v>
       </c>
       <c r="L54" t="s">
@@ -9780,7 +9780,7 @@
       <c r="J55">
         <v>17.99</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="K55" t="s">
         <v>425</v>
       </c>
       <c r="L55" t="s">
@@ -9833,7 +9833,7 @@
       <c r="J56">
         <v>19.99</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="K56" t="s">
         <v>425</v>
       </c>
       <c r="L56" t="s">
@@ -9886,7 +9886,7 @@
       <c r="J57">
         <v>19.99</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="K57" t="s">
         <v>425</v>
       </c>
       <c r="L57" t="s">
@@ -9939,7 +9939,7 @@
       <c r="J58">
         <v>17.99</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="K58" t="s">
         <v>425</v>
       </c>
       <c r="L58" t="s">
@@ -9992,7 +9992,7 @@
       <c r="J59">
         <v>19.99</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="K59" t="s">
         <v>425</v>
       </c>
       <c r="L59" t="s">
@@ -10045,7 +10045,7 @@
       <c r="J60">
         <v>19.99</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="K60" t="s">
         <v>425</v>
       </c>
       <c r="L60" t="s">
@@ -10098,7 +10098,7 @@
       <c r="J61">
         <v>19.99</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="K61" t="s">
         <v>425</v>
       </c>
       <c r="L61" t="s">
@@ -10151,7 +10151,7 @@
       <c r="J62">
         <v>19.99</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="K62" t="s">
         <v>425</v>
       </c>
       <c r="L62" t="s">
@@ -10204,7 +10204,7 @@
       <c r="J63">
         <v>19.99</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="K63" t="s">
         <v>425</v>
       </c>
       <c r="L63" t="s">
@@ -10254,7 +10254,7 @@
       <c r="J64">
         <v>17.97</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="K64" t="s">
         <v>425</v>
       </c>
       <c r="L64" t="s">
@@ -10304,7 +10304,7 @@
       <c r="J65">
         <v>17.97</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="K65" t="s">
         <v>425</v>
       </c>
       <c r="L65" t="s">
@@ -10357,7 +10357,7 @@
       <c r="J66">
         <v>17.99</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="K66" t="s">
         <v>425</v>
       </c>
       <c r="L66" t="s">
@@ -10410,7 +10410,7 @@
       <c r="J67">
         <v>17.99</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="K67" t="s">
         <v>425</v>
       </c>
       <c r="L67" t="s">
@@ -10463,7 +10463,7 @@
       <c r="J68">
         <v>17.99</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="K68" t="s">
         <v>425</v>
       </c>
       <c r="L68" t="s">
@@ -10516,7 +10516,7 @@
       <c r="J69">
         <v>17.99</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="K69" t="s">
         <v>425</v>
       </c>
       <c r="L69" t="s">
@@ -10569,7 +10569,7 @@
       <c r="J70">
         <v>17.99</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="K70" t="s">
         <v>425</v>
       </c>
       <c r="L70" t="s">
@@ -10622,7 +10622,7 @@
       <c r="J71">
         <v>17.99</v>
       </c>
-      <c r="K71" s="2" t="s">
+      <c r="K71" t="s">
         <v>425</v>
       </c>
       <c r="L71" t="s">
@@ -10675,7 +10675,7 @@
       <c r="J72">
         <v>17.99</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="K72" t="s">
         <v>425</v>
       </c>
       <c r="L72" t="s">
@@ -10728,7 +10728,7 @@
       <c r="J73">
         <v>17.99</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="K73" t="s">
         <v>425</v>
       </c>
       <c r="L73" t="s">
@@ -10781,7 +10781,7 @@
       <c r="J74">
         <v>17.99</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="K74" t="s">
         <v>425</v>
       </c>
       <c r="L74" t="s">
@@ -10834,7 +10834,7 @@
       <c r="J75">
         <v>17.99</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="K75" t="s">
         <v>425</v>
       </c>
       <c r="L75" t="s">
@@ -10887,7 +10887,7 @@
       <c r="J76">
         <v>17.99</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="K76" t="s">
         <v>425</v>
       </c>
       <c r="L76" t="s">
@@ -10940,7 +10940,7 @@
       <c r="J77">
         <v>17.99</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="K77" t="s">
         <v>425</v>
       </c>
       <c r="L77" t="s">
@@ -10993,7 +10993,7 @@
       <c r="J78">
         <v>17.99</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="K78" t="s">
         <v>425</v>
       </c>
       <c r="L78" t="s">
@@ -11046,7 +11046,7 @@
       <c r="J79">
         <v>17.99</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="K79" t="s">
         <v>425</v>
       </c>
       <c r="L79" t="s">
@@ -11099,7 +11099,7 @@
       <c r="J80">
         <v>19.99</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="K80" t="s">
         <v>425</v>
       </c>
       <c r="L80" t="s">
@@ -11152,7 +11152,7 @@
       <c r="J81">
         <v>19.99</v>
       </c>
-      <c r="K81" s="2" t="s">
+      <c r="K81" t="s">
         <v>425</v>
       </c>
       <c r="L81" t="s">
@@ -11205,7 +11205,7 @@
       <c r="J82">
         <v>19.99</v>
       </c>
-      <c r="K82" s="2" t="s">
+      <c r="K82" t="s">
         <v>425</v>
       </c>
       <c r="L82" t="s">
@@ -11258,7 +11258,7 @@
       <c r="J83">
         <v>19.99</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="K83" t="s">
         <v>425</v>
       </c>
       <c r="L83" t="s">
@@ -11311,7 +11311,7 @@
       <c r="J84">
         <v>19.99</v>
       </c>
-      <c r="K84" s="2" t="s">
+      <c r="K84" t="s">
         <v>425</v>
       </c>
       <c r="L84" t="s">
@@ -11364,7 +11364,7 @@
       <c r="J85">
         <v>19.99</v>
       </c>
-      <c r="K85" s="2" t="s">
+      <c r="K85" t="s">
         <v>425</v>
       </c>
       <c r="L85" t="s">
@@ -11417,7 +11417,7 @@
       <c r="J86">
         <v>19.99</v>
       </c>
-      <c r="K86" s="2" t="s">
+      <c r="K86" t="s">
         <v>425</v>
       </c>
       <c r="L86" t="s">
@@ -11470,7 +11470,7 @@
       <c r="J87">
         <v>19.99</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="K87" t="s">
         <v>425</v>
       </c>
       <c r="L87" t="s">
@@ -11523,7 +11523,7 @@
       <c r="J88">
         <v>19.99</v>
       </c>
-      <c r="K88" s="2" t="s">
+      <c r="K88" t="s">
         <v>425</v>
       </c>
       <c r="L88" t="s">
@@ -11576,7 +11576,7 @@
       <c r="J89">
         <v>19.99</v>
       </c>
-      <c r="K89" s="2" t="s">
+      <c r="K89" t="s">
         <v>425</v>
       </c>
       <c r="L89" t="s">
@@ -11629,7 +11629,7 @@
       <c r="J90">
         <v>17.99</v>
       </c>
-      <c r="K90" s="2" t="s">
+      <c r="K90" t="s">
         <v>425</v>
       </c>
       <c r="L90" t="s">
@@ -11682,7 +11682,7 @@
       <c r="J91">
         <v>17.99</v>
       </c>
-      <c r="K91" s="2" t="s">
+      <c r="K91" t="s">
         <v>425</v>
       </c>
       <c r="L91" t="s">
@@ -11735,7 +11735,7 @@
       <c r="J92">
         <v>17.99</v>
       </c>
-      <c r="K92" s="2" t="s">
+      <c r="K92" t="s">
         <v>425</v>
       </c>
       <c r="L92" t="s">
@@ -11788,7 +11788,7 @@
       <c r="J93">
         <v>19.99</v>
       </c>
-      <c r="K93" s="2" t="s">
+      <c r="K93" t="s">
         <v>425</v>
       </c>
       <c r="L93" t="s">
@@ -11841,7 +11841,7 @@
       <c r="J94">
         <v>19.99</v>
       </c>
-      <c r="K94" s="2" t="s">
+      <c r="K94" t="s">
         <v>425</v>
       </c>
       <c r="L94" t="s">
@@ -11894,7 +11894,7 @@
       <c r="J95">
         <v>19.99</v>
       </c>
-      <c r="K95" s="2" t="s">
+      <c r="K95" t="s">
         <v>425</v>
       </c>
       <c r="L95" t="s">
@@ -11941,7 +11941,7 @@
       <c r="J96">
         <v>21.97</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="K96" t="s">
         <v>425</v>
       </c>
       <c r="L96" t="s">
@@ -11991,7 +11991,7 @@
       <c r="J97">
         <v>19.99</v>
       </c>
-      <c r="K97" s="2" t="s">
+      <c r="K97" t="s">
         <v>425</v>
       </c>
       <c r="L97" t="s">
@@ -12044,7 +12044,7 @@
       <c r="J98">
         <v>22</v>
       </c>
-      <c r="K98" s="2" t="s">
+      <c r="K98" t="s">
         <v>425</v>
       </c>
       <c r="L98" t="s">
@@ -12097,7 +12097,7 @@
       <c r="J99">
         <v>19.99</v>
       </c>
-      <c r="K99" s="2" t="s">
+      <c r="K99" t="s">
         <v>425</v>
       </c>
       <c r="L99" t="s">
@@ -12150,7 +12150,7 @@
       <c r="J100">
         <v>19.99</v>
       </c>
-      <c r="K100" s="2" t="s">
+      <c r="K100" t="s">
         <v>425</v>
       </c>
       <c r="L100" t="s">
@@ -12203,7 +12203,7 @@
       <c r="J101">
         <v>19.99</v>
       </c>
-      <c r="K101" s="2" t="s">
+      <c r="K101" t="s">
         <v>425</v>
       </c>
       <c r="L101" t="s">
@@ -12256,7 +12256,7 @@
       <c r="J102">
         <v>17.99</v>
       </c>
-      <c r="K102" s="2" t="s">
+      <c r="K102" t="s">
         <v>425</v>
       </c>
       <c r="L102" t="s">
@@ -12309,7 +12309,7 @@
       <c r="J103">
         <v>17.99</v>
       </c>
-      <c r="K103" s="2" t="s">
+      <c r="K103" t="s">
         <v>425</v>
       </c>
       <c r="L103" t="s">
@@ -12362,7 +12362,7 @@
       <c r="J104">
         <v>17.99</v>
       </c>
-      <c r="K104" s="2" t="s">
+      <c r="K104" t="s">
         <v>425</v>
       </c>
       <c r="L104" t="s">
@@ -12415,7 +12415,7 @@
       <c r="J105">
         <v>17.99</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="K105" t="s">
         <v>425</v>
       </c>
       <c r="L105" t="s">
@@ -12468,7 +12468,7 @@
       <c r="J106">
         <v>17.99</v>
       </c>
-      <c r="K106" s="2" t="s">
+      <c r="K106" t="s">
         <v>425</v>
       </c>
       <c r="L106" t="s">
@@ -12521,7 +12521,7 @@
       <c r="J107">
         <v>17.99</v>
       </c>
-      <c r="K107" s="2" t="s">
+      <c r="K107" t="s">
         <v>425</v>
       </c>
       <c r="L107" t="s">
@@ -12571,7 +12571,7 @@
       <c r="J108">
         <v>17.99</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="K108" t="s">
         <v>425</v>
       </c>
       <c r="L108" t="s">
@@ -12621,7 +12621,7 @@
       <c r="J109">
         <v>17.99</v>
       </c>
-      <c r="K109" s="2" t="s">
+      <c r="K109" t="s">
         <v>425</v>
       </c>
       <c r="L109" t="s">
@@ -12671,7 +12671,7 @@
       <c r="J110">
         <v>17.99</v>
       </c>
-      <c r="K110" s="2" t="s">
+      <c r="K110" t="s">
         <v>425</v>
       </c>
       <c r="L110" t="s">
@@ -12721,7 +12721,7 @@
       <c r="J111">
         <v>21.99</v>
       </c>
-      <c r="K111" s="2" t="s">
+      <c r="K111" t="s">
         <v>425</v>
       </c>
       <c r="L111" t="s">
@@ -12765,7 +12765,7 @@
       <c r="J112">
         <v>21.99</v>
       </c>
-      <c r="K112" s="2" t="s">
+      <c r="K112" t="s">
         <v>425</v>
       </c>
       <c r="L112" t="s">
@@ -12815,7 +12815,7 @@
       <c r="J113">
         <v>23.99</v>
       </c>
-      <c r="K113" s="2" t="s">
+      <c r="K113" t="s">
         <v>425</v>
       </c>
       <c r="L113" t="s">
@@ -12868,7 +12868,7 @@
       <c r="J114">
         <v>23.75</v>
       </c>
-      <c r="K114" s="2" t="s">
+      <c r="K114" t="s">
         <v>425</v>
       </c>
       <c r="L114" t="s">
@@ -12921,7 +12921,7 @@
       <c r="J115">
         <v>19.43</v>
       </c>
-      <c r="K115" s="2" t="s">
+      <c r="K115" t="s">
         <v>425</v>
       </c>
       <c r="L115" t="s">
@@ -12974,7 +12974,7 @@
       <c r="J116">
         <v>19.43</v>
       </c>
-      <c r="K116" s="2" t="s">
+      <c r="K116" t="s">
         <v>425</v>
       </c>
       <c r="L116" t="s">
@@ -13027,7 +13027,7 @@
       <c r="J117">
         <v>19.43</v>
       </c>
-      <c r="K117" s="2" t="s">
+      <c r="K117" t="s">
         <v>425</v>
       </c>
       <c r="L117" t="s">
@@ -13080,7 +13080,7 @@
       <c r="J118">
         <v>19.99</v>
       </c>
-      <c r="K118" s="2" t="s">
+      <c r="K118" t="s">
         <v>425</v>
       </c>
       <c r="L118" t="s">
@@ -13133,7 +13133,7 @@
       <c r="J119">
         <v>19.99</v>
       </c>
-      <c r="K119" s="2" t="s">
+      <c r="K119" t="s">
         <v>425</v>
       </c>
       <c r="L119" t="s">
@@ -13186,7 +13186,7 @@
       <c r="J120">
         <v>19.99</v>
       </c>
-      <c r="K120" s="2" t="s">
+      <c r="K120" t="s">
         <v>425</v>
       </c>
       <c r="L120" t="s">
@@ -13239,7 +13239,7 @@
       <c r="J121">
         <v>21.99</v>
       </c>
-      <c r="K121" s="2" t="s">
+      <c r="K121" t="s">
         <v>425</v>
       </c>
       <c r="L121" t="s">
@@ -13292,7 +13292,7 @@
       <c r="J122">
         <v>21.99</v>
       </c>
-      <c r="K122" s="2" t="s">
+      <c r="K122" t="s">
         <v>425</v>
       </c>
       <c r="L122" t="s">
@@ -13345,7 +13345,7 @@
       <c r="J123">
         <v>21.99</v>
       </c>
-      <c r="K123" s="2" t="s">
+      <c r="K123" t="s">
         <v>425</v>
       </c>
       <c r="L123" t="s">
@@ -13385,369 +13385,248 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1"/>
-    <hyperlink ref="M3" r:id="rId2"/>
-    <hyperlink ref="N3" r:id="rId3"/>
-    <hyperlink ref="K4" r:id="rId4"/>
-    <hyperlink ref="M4" r:id="rId5"/>
-    <hyperlink ref="N4" r:id="rId6"/>
-    <hyperlink ref="K5" r:id="rId7"/>
-    <hyperlink ref="M5" r:id="rId8"/>
-    <hyperlink ref="N5" r:id="rId9"/>
-    <hyperlink ref="K6" r:id="rId10"/>
-    <hyperlink ref="M6" r:id="rId11"/>
-    <hyperlink ref="N6" r:id="rId12"/>
-    <hyperlink ref="K7" r:id="rId13"/>
-    <hyperlink ref="M7" r:id="rId14"/>
-    <hyperlink ref="N7" r:id="rId15"/>
-    <hyperlink ref="K8" r:id="rId16"/>
-    <hyperlink ref="M8" r:id="rId17"/>
-    <hyperlink ref="N8" r:id="rId18"/>
-    <hyperlink ref="K9" r:id="rId19"/>
-    <hyperlink ref="M9" r:id="rId20"/>
-    <hyperlink ref="N9" r:id="rId21"/>
-    <hyperlink ref="K10" r:id="rId22"/>
-    <hyperlink ref="M10" r:id="rId23"/>
-    <hyperlink ref="N10" r:id="rId24"/>
-    <hyperlink ref="K11" r:id="rId25"/>
-    <hyperlink ref="M11" r:id="rId26"/>
-    <hyperlink ref="N11" r:id="rId27"/>
-    <hyperlink ref="K12" r:id="rId28"/>
-    <hyperlink ref="M12" r:id="rId29"/>
-    <hyperlink ref="N12" r:id="rId30"/>
-    <hyperlink ref="K13" r:id="rId31"/>
-    <hyperlink ref="M13" r:id="rId32"/>
-    <hyperlink ref="N13" r:id="rId33"/>
-    <hyperlink ref="K14" r:id="rId34"/>
-    <hyperlink ref="M14" r:id="rId35"/>
-    <hyperlink ref="N14" r:id="rId36"/>
-    <hyperlink ref="K15" r:id="rId37"/>
-    <hyperlink ref="M15" r:id="rId38"/>
-    <hyperlink ref="N15" r:id="rId39"/>
-    <hyperlink ref="K16" r:id="rId40"/>
-    <hyperlink ref="M16" r:id="rId41"/>
-    <hyperlink ref="N16" r:id="rId42"/>
-    <hyperlink ref="K17" r:id="rId43"/>
-    <hyperlink ref="M17" r:id="rId44"/>
-    <hyperlink ref="N17" r:id="rId45"/>
-    <hyperlink ref="K18" r:id="rId46"/>
-    <hyperlink ref="M18" r:id="rId47"/>
-    <hyperlink ref="N18" r:id="rId48"/>
-    <hyperlink ref="K19" r:id="rId49"/>
-    <hyperlink ref="M19" r:id="rId50"/>
-    <hyperlink ref="N19" r:id="rId51"/>
-    <hyperlink ref="K20" r:id="rId52"/>
-    <hyperlink ref="M20" r:id="rId53"/>
-    <hyperlink ref="N20" r:id="rId54"/>
-    <hyperlink ref="K21" r:id="rId55"/>
-    <hyperlink ref="M21" r:id="rId56"/>
-    <hyperlink ref="N21" r:id="rId57"/>
-    <hyperlink ref="K22" r:id="rId58"/>
-    <hyperlink ref="M22" r:id="rId59"/>
-    <hyperlink ref="N22" r:id="rId60"/>
-    <hyperlink ref="K23" r:id="rId61"/>
-    <hyperlink ref="M23" r:id="rId62"/>
-    <hyperlink ref="N23" r:id="rId63"/>
-    <hyperlink ref="K24" r:id="rId64"/>
-    <hyperlink ref="M24" r:id="rId65"/>
-    <hyperlink ref="N24" r:id="rId66"/>
-    <hyperlink ref="K25" r:id="rId67"/>
-    <hyperlink ref="M25" r:id="rId68"/>
-    <hyperlink ref="N25" r:id="rId69"/>
-    <hyperlink ref="K26" r:id="rId70"/>
-    <hyperlink ref="M26" r:id="rId71"/>
-    <hyperlink ref="N26" r:id="rId72"/>
-    <hyperlink ref="K27" r:id="rId73"/>
-    <hyperlink ref="M27" r:id="rId74"/>
-    <hyperlink ref="N27" r:id="rId75"/>
-    <hyperlink ref="K28" r:id="rId76"/>
-    <hyperlink ref="M28" r:id="rId77"/>
-    <hyperlink ref="N28" r:id="rId78"/>
-    <hyperlink ref="K29" r:id="rId79"/>
-    <hyperlink ref="M29" r:id="rId80"/>
-    <hyperlink ref="N29" r:id="rId81"/>
-    <hyperlink ref="K30" r:id="rId82"/>
-    <hyperlink ref="M30" r:id="rId83"/>
-    <hyperlink ref="N30" r:id="rId84"/>
-    <hyperlink ref="K31" r:id="rId85"/>
-    <hyperlink ref="M31" r:id="rId86"/>
-    <hyperlink ref="N31" r:id="rId87"/>
-    <hyperlink ref="K32" r:id="rId88"/>
-    <hyperlink ref="M32" r:id="rId89"/>
-    <hyperlink ref="N32" r:id="rId90"/>
-    <hyperlink ref="K33" r:id="rId91"/>
-    <hyperlink ref="M33" r:id="rId92"/>
-    <hyperlink ref="N33" r:id="rId93"/>
-    <hyperlink ref="K34" r:id="rId94"/>
-    <hyperlink ref="M34" r:id="rId95"/>
-    <hyperlink ref="N34" r:id="rId96"/>
-    <hyperlink ref="K35" r:id="rId97"/>
-    <hyperlink ref="M35" r:id="rId98"/>
-    <hyperlink ref="N35" r:id="rId99"/>
-    <hyperlink ref="K36" r:id="rId100"/>
-    <hyperlink ref="M36" r:id="rId101"/>
-    <hyperlink ref="N36" r:id="rId102"/>
-    <hyperlink ref="K37" r:id="rId103"/>
-    <hyperlink ref="M37" r:id="rId104"/>
-    <hyperlink ref="N37" r:id="rId105"/>
-    <hyperlink ref="K38" r:id="rId106"/>
-    <hyperlink ref="M38" r:id="rId107"/>
-    <hyperlink ref="N38" r:id="rId108"/>
-    <hyperlink ref="K39" r:id="rId109"/>
-    <hyperlink ref="M39" r:id="rId110"/>
-    <hyperlink ref="N39" r:id="rId111"/>
-    <hyperlink ref="K40" r:id="rId112"/>
-    <hyperlink ref="M40" r:id="rId113"/>
-    <hyperlink ref="N40" r:id="rId114"/>
-    <hyperlink ref="K41" r:id="rId115"/>
-    <hyperlink ref="M41" r:id="rId116"/>
-    <hyperlink ref="N41" r:id="rId117"/>
-    <hyperlink ref="K42" r:id="rId118"/>
-    <hyperlink ref="M42" r:id="rId119"/>
-    <hyperlink ref="N42" r:id="rId120"/>
-    <hyperlink ref="K43" r:id="rId121"/>
-    <hyperlink ref="M43" r:id="rId122"/>
-    <hyperlink ref="N43" r:id="rId123"/>
-    <hyperlink ref="K44" r:id="rId124"/>
-    <hyperlink ref="M44" r:id="rId125"/>
-    <hyperlink ref="N44" r:id="rId126"/>
-    <hyperlink ref="K45" r:id="rId127"/>
-    <hyperlink ref="M45" r:id="rId128"/>
-    <hyperlink ref="N45" r:id="rId129"/>
-    <hyperlink ref="K46" r:id="rId130"/>
-    <hyperlink ref="M46" r:id="rId131"/>
-    <hyperlink ref="N46" r:id="rId132"/>
-    <hyperlink ref="K47" r:id="rId133"/>
-    <hyperlink ref="M47" r:id="rId134"/>
-    <hyperlink ref="N47" r:id="rId135"/>
-    <hyperlink ref="K48" r:id="rId136"/>
-    <hyperlink ref="M48" r:id="rId137"/>
-    <hyperlink ref="N48" r:id="rId138"/>
-    <hyperlink ref="K49" r:id="rId139"/>
-    <hyperlink ref="M49" r:id="rId140"/>
-    <hyperlink ref="N49" r:id="rId141"/>
-    <hyperlink ref="K50" r:id="rId142"/>
-    <hyperlink ref="M50" r:id="rId143"/>
-    <hyperlink ref="N50" r:id="rId144"/>
-    <hyperlink ref="K51" r:id="rId145"/>
-    <hyperlink ref="M51" r:id="rId146"/>
-    <hyperlink ref="N51" r:id="rId147"/>
-    <hyperlink ref="K52" r:id="rId148"/>
-    <hyperlink ref="M52" r:id="rId149"/>
-    <hyperlink ref="N52" r:id="rId150"/>
-    <hyperlink ref="K53" r:id="rId151"/>
-    <hyperlink ref="M53" r:id="rId152"/>
-    <hyperlink ref="N53" r:id="rId153"/>
-    <hyperlink ref="K54" r:id="rId154"/>
-    <hyperlink ref="M54" r:id="rId155"/>
-    <hyperlink ref="N54" r:id="rId156"/>
-    <hyperlink ref="K55" r:id="rId157"/>
-    <hyperlink ref="M55" r:id="rId158"/>
-    <hyperlink ref="N55" r:id="rId159"/>
-    <hyperlink ref="K56" r:id="rId160"/>
-    <hyperlink ref="M56" r:id="rId161"/>
-    <hyperlink ref="N56" r:id="rId162"/>
-    <hyperlink ref="K57" r:id="rId163"/>
-    <hyperlink ref="M57" r:id="rId164"/>
-    <hyperlink ref="N57" r:id="rId165"/>
-    <hyperlink ref="K58" r:id="rId166"/>
-    <hyperlink ref="M58" r:id="rId167"/>
-    <hyperlink ref="N58" r:id="rId168"/>
-    <hyperlink ref="K59" r:id="rId169"/>
-    <hyperlink ref="M59" r:id="rId170"/>
-    <hyperlink ref="N59" r:id="rId171"/>
-    <hyperlink ref="K60" r:id="rId172"/>
-    <hyperlink ref="M60" r:id="rId173"/>
-    <hyperlink ref="N60" r:id="rId174"/>
-    <hyperlink ref="K61" r:id="rId175"/>
-    <hyperlink ref="M61" r:id="rId176"/>
-    <hyperlink ref="N61" r:id="rId177"/>
-    <hyperlink ref="K62" r:id="rId178"/>
-    <hyperlink ref="M62" r:id="rId179"/>
-    <hyperlink ref="N62" r:id="rId180"/>
-    <hyperlink ref="K63" r:id="rId181"/>
-    <hyperlink ref="M63" r:id="rId182"/>
-    <hyperlink ref="N63" r:id="rId183"/>
-    <hyperlink ref="K64" r:id="rId184"/>
-    <hyperlink ref="M64" r:id="rId185"/>
-    <hyperlink ref="N64" r:id="rId186"/>
-    <hyperlink ref="K65" r:id="rId187"/>
-    <hyperlink ref="M65" r:id="rId188"/>
-    <hyperlink ref="N65" r:id="rId189"/>
-    <hyperlink ref="K66" r:id="rId190"/>
-    <hyperlink ref="M66" r:id="rId191"/>
-    <hyperlink ref="N66" r:id="rId192"/>
-    <hyperlink ref="K67" r:id="rId193"/>
-    <hyperlink ref="M67" r:id="rId194"/>
-    <hyperlink ref="N67" r:id="rId195"/>
-    <hyperlink ref="K68" r:id="rId196"/>
-    <hyperlink ref="M68" r:id="rId197"/>
-    <hyperlink ref="N68" r:id="rId198"/>
-    <hyperlink ref="K69" r:id="rId199"/>
-    <hyperlink ref="M69" r:id="rId200"/>
-    <hyperlink ref="N69" r:id="rId201"/>
-    <hyperlink ref="K70" r:id="rId202"/>
-    <hyperlink ref="M70" r:id="rId203"/>
-    <hyperlink ref="N70" r:id="rId204"/>
-    <hyperlink ref="K71" r:id="rId205"/>
-    <hyperlink ref="M71" r:id="rId206"/>
-    <hyperlink ref="N71" r:id="rId207"/>
-    <hyperlink ref="K72" r:id="rId208"/>
-    <hyperlink ref="M72" r:id="rId209"/>
-    <hyperlink ref="N72" r:id="rId210"/>
-    <hyperlink ref="K73" r:id="rId211"/>
-    <hyperlink ref="M73" r:id="rId212"/>
-    <hyperlink ref="N73" r:id="rId213"/>
-    <hyperlink ref="K74" r:id="rId214"/>
-    <hyperlink ref="M74" r:id="rId215"/>
-    <hyperlink ref="N74" r:id="rId216"/>
-    <hyperlink ref="K75" r:id="rId217"/>
-    <hyperlink ref="M75" r:id="rId218"/>
-    <hyperlink ref="N75" r:id="rId219"/>
-    <hyperlink ref="K76" r:id="rId220"/>
-    <hyperlink ref="M76" r:id="rId221"/>
-    <hyperlink ref="N76" r:id="rId222"/>
-    <hyperlink ref="K77" r:id="rId223"/>
-    <hyperlink ref="M77" r:id="rId224"/>
-    <hyperlink ref="N77" r:id="rId225"/>
-    <hyperlink ref="K78" r:id="rId226"/>
-    <hyperlink ref="M78" r:id="rId227"/>
-    <hyperlink ref="N78" r:id="rId228"/>
-    <hyperlink ref="K79" r:id="rId229"/>
-    <hyperlink ref="M79" r:id="rId230"/>
-    <hyperlink ref="N79" r:id="rId231"/>
-    <hyperlink ref="K80" r:id="rId232"/>
-    <hyperlink ref="M80" r:id="rId233"/>
-    <hyperlink ref="N80" r:id="rId234"/>
-    <hyperlink ref="K81" r:id="rId235"/>
-    <hyperlink ref="M81" r:id="rId236"/>
-    <hyperlink ref="N81" r:id="rId237"/>
-    <hyperlink ref="K82" r:id="rId238"/>
-    <hyperlink ref="M82" r:id="rId239"/>
-    <hyperlink ref="N82" r:id="rId240"/>
-    <hyperlink ref="K83" r:id="rId241"/>
-    <hyperlink ref="M83" r:id="rId242"/>
-    <hyperlink ref="N83" r:id="rId243"/>
-    <hyperlink ref="K84" r:id="rId244"/>
-    <hyperlink ref="M84" r:id="rId245"/>
-    <hyperlink ref="N84" r:id="rId246"/>
-    <hyperlink ref="K85" r:id="rId247"/>
-    <hyperlink ref="M85" r:id="rId248"/>
-    <hyperlink ref="N85" r:id="rId249"/>
-    <hyperlink ref="K86" r:id="rId250"/>
-    <hyperlink ref="M86" r:id="rId251"/>
-    <hyperlink ref="N86" r:id="rId252"/>
-    <hyperlink ref="K87" r:id="rId253"/>
-    <hyperlink ref="M87" r:id="rId254"/>
-    <hyperlink ref="N87" r:id="rId255"/>
-    <hyperlink ref="K88" r:id="rId256"/>
-    <hyperlink ref="M88" r:id="rId257"/>
-    <hyperlink ref="N88" r:id="rId258"/>
-    <hyperlink ref="K89" r:id="rId259"/>
-    <hyperlink ref="M89" r:id="rId260"/>
-    <hyperlink ref="N89" r:id="rId261"/>
-    <hyperlink ref="K90" r:id="rId262"/>
-    <hyperlink ref="M90" r:id="rId263"/>
-    <hyperlink ref="N90" r:id="rId264"/>
-    <hyperlink ref="K91" r:id="rId265"/>
-    <hyperlink ref="M91" r:id="rId266"/>
-    <hyperlink ref="N91" r:id="rId267"/>
-    <hyperlink ref="K92" r:id="rId268"/>
-    <hyperlink ref="M92" r:id="rId269"/>
-    <hyperlink ref="N92" r:id="rId270"/>
-    <hyperlink ref="K93" r:id="rId271"/>
-    <hyperlink ref="M93" r:id="rId272"/>
-    <hyperlink ref="N93" r:id="rId273"/>
-    <hyperlink ref="K94" r:id="rId274"/>
-    <hyperlink ref="M94" r:id="rId275"/>
-    <hyperlink ref="N94" r:id="rId276"/>
-    <hyperlink ref="K95" r:id="rId277"/>
-    <hyperlink ref="M95" r:id="rId278"/>
-    <hyperlink ref="N95" r:id="rId279"/>
-    <hyperlink ref="K96" r:id="rId280"/>
-    <hyperlink ref="M96" r:id="rId281"/>
-    <hyperlink ref="N96" r:id="rId282"/>
-    <hyperlink ref="K97" r:id="rId283"/>
-    <hyperlink ref="M97" r:id="rId284"/>
-    <hyperlink ref="N97" r:id="rId285"/>
-    <hyperlink ref="K98" r:id="rId286"/>
-    <hyperlink ref="M98" r:id="rId287"/>
-    <hyperlink ref="N98" r:id="rId288"/>
-    <hyperlink ref="K99" r:id="rId289"/>
-    <hyperlink ref="M99" r:id="rId290"/>
-    <hyperlink ref="N99" r:id="rId291"/>
-    <hyperlink ref="K100" r:id="rId292"/>
-    <hyperlink ref="M100" r:id="rId293"/>
-    <hyperlink ref="N100" r:id="rId294"/>
-    <hyperlink ref="K101" r:id="rId295"/>
-    <hyperlink ref="M101" r:id="rId296"/>
-    <hyperlink ref="N101" r:id="rId297"/>
-    <hyperlink ref="K102" r:id="rId298"/>
-    <hyperlink ref="M102" r:id="rId299"/>
-    <hyperlink ref="N102" r:id="rId300"/>
-    <hyperlink ref="K103" r:id="rId301"/>
-    <hyperlink ref="M103" r:id="rId302"/>
-    <hyperlink ref="N103" r:id="rId303"/>
-    <hyperlink ref="K104" r:id="rId304"/>
-    <hyperlink ref="M104" r:id="rId305"/>
-    <hyperlink ref="N104" r:id="rId306"/>
-    <hyperlink ref="K105" r:id="rId307"/>
-    <hyperlink ref="M105" r:id="rId308"/>
-    <hyperlink ref="N105" r:id="rId309"/>
-    <hyperlink ref="K106" r:id="rId310"/>
-    <hyperlink ref="M106" r:id="rId311"/>
-    <hyperlink ref="N106" r:id="rId312"/>
-    <hyperlink ref="K107" r:id="rId313"/>
-    <hyperlink ref="M107" r:id="rId314"/>
-    <hyperlink ref="N107" r:id="rId315"/>
-    <hyperlink ref="K108" r:id="rId316"/>
-    <hyperlink ref="M108" r:id="rId317"/>
-    <hyperlink ref="N108" r:id="rId318"/>
-    <hyperlink ref="K109" r:id="rId319"/>
-    <hyperlink ref="M109" r:id="rId320"/>
-    <hyperlink ref="N109" r:id="rId321"/>
-    <hyperlink ref="K110" r:id="rId322"/>
-    <hyperlink ref="M110" r:id="rId323"/>
-    <hyperlink ref="N110" r:id="rId324"/>
-    <hyperlink ref="K111" r:id="rId325"/>
-    <hyperlink ref="M111" r:id="rId326"/>
-    <hyperlink ref="N111" r:id="rId327"/>
-    <hyperlink ref="K112" r:id="rId328"/>
-    <hyperlink ref="M112" r:id="rId329"/>
-    <hyperlink ref="N112" r:id="rId330"/>
-    <hyperlink ref="K113" r:id="rId331"/>
-    <hyperlink ref="M113" r:id="rId332"/>
-    <hyperlink ref="N113" r:id="rId333"/>
-    <hyperlink ref="K114" r:id="rId334"/>
-    <hyperlink ref="M114" r:id="rId335"/>
-    <hyperlink ref="N114" r:id="rId336"/>
-    <hyperlink ref="K115" r:id="rId337"/>
-    <hyperlink ref="M115" r:id="rId338"/>
-    <hyperlink ref="N115" r:id="rId339"/>
-    <hyperlink ref="K116" r:id="rId340"/>
-    <hyperlink ref="M116" r:id="rId341"/>
-    <hyperlink ref="N116" r:id="rId342"/>
-    <hyperlink ref="K117" r:id="rId343"/>
-    <hyperlink ref="M117" r:id="rId344"/>
-    <hyperlink ref="N117" r:id="rId345"/>
-    <hyperlink ref="K118" r:id="rId346"/>
-    <hyperlink ref="M118" r:id="rId347"/>
-    <hyperlink ref="N118" r:id="rId348"/>
-    <hyperlink ref="K119" r:id="rId349"/>
-    <hyperlink ref="M119" r:id="rId350"/>
-    <hyperlink ref="N119" r:id="rId351"/>
-    <hyperlink ref="K120" r:id="rId352"/>
-    <hyperlink ref="M120" r:id="rId353"/>
-    <hyperlink ref="N120" r:id="rId354"/>
-    <hyperlink ref="K121" r:id="rId355"/>
-    <hyperlink ref="M121" r:id="rId356"/>
-    <hyperlink ref="N121" r:id="rId357"/>
-    <hyperlink ref="K122" r:id="rId358"/>
-    <hyperlink ref="M122" r:id="rId359"/>
-    <hyperlink ref="N122" r:id="rId360"/>
-    <hyperlink ref="K123" r:id="rId361"/>
-    <hyperlink ref="M123" r:id="rId362"/>
-    <hyperlink ref="N123" r:id="rId363"/>
+    <hyperlink ref="M3" r:id="rId1"/>
+    <hyperlink ref="N3" r:id="rId2"/>
+    <hyperlink ref="M4" r:id="rId3"/>
+    <hyperlink ref="N4" r:id="rId4"/>
+    <hyperlink ref="M5" r:id="rId5"/>
+    <hyperlink ref="N5" r:id="rId6"/>
+    <hyperlink ref="M6" r:id="rId7"/>
+    <hyperlink ref="N6" r:id="rId8"/>
+    <hyperlink ref="M7" r:id="rId9"/>
+    <hyperlink ref="N7" r:id="rId10"/>
+    <hyperlink ref="M8" r:id="rId11"/>
+    <hyperlink ref="N8" r:id="rId12"/>
+    <hyperlink ref="M9" r:id="rId13"/>
+    <hyperlink ref="N9" r:id="rId14"/>
+    <hyperlink ref="M10" r:id="rId15"/>
+    <hyperlink ref="N10" r:id="rId16"/>
+    <hyperlink ref="M11" r:id="rId17"/>
+    <hyperlink ref="N11" r:id="rId18"/>
+    <hyperlink ref="M12" r:id="rId19"/>
+    <hyperlink ref="N12" r:id="rId20"/>
+    <hyperlink ref="M13" r:id="rId21"/>
+    <hyperlink ref="N13" r:id="rId22"/>
+    <hyperlink ref="M14" r:id="rId23"/>
+    <hyperlink ref="N14" r:id="rId24"/>
+    <hyperlink ref="M15" r:id="rId25"/>
+    <hyperlink ref="N15" r:id="rId26"/>
+    <hyperlink ref="M16" r:id="rId27"/>
+    <hyperlink ref="N16" r:id="rId28"/>
+    <hyperlink ref="M17" r:id="rId29"/>
+    <hyperlink ref="N17" r:id="rId30"/>
+    <hyperlink ref="M18" r:id="rId31"/>
+    <hyperlink ref="N18" r:id="rId32"/>
+    <hyperlink ref="M19" r:id="rId33"/>
+    <hyperlink ref="N19" r:id="rId34"/>
+    <hyperlink ref="M20" r:id="rId35"/>
+    <hyperlink ref="N20" r:id="rId36"/>
+    <hyperlink ref="M21" r:id="rId37"/>
+    <hyperlink ref="N21" r:id="rId38"/>
+    <hyperlink ref="M22" r:id="rId39"/>
+    <hyperlink ref="N22" r:id="rId40"/>
+    <hyperlink ref="M23" r:id="rId41"/>
+    <hyperlink ref="N23" r:id="rId42"/>
+    <hyperlink ref="M24" r:id="rId43"/>
+    <hyperlink ref="N24" r:id="rId44"/>
+    <hyperlink ref="M25" r:id="rId45"/>
+    <hyperlink ref="N25" r:id="rId46"/>
+    <hyperlink ref="M26" r:id="rId47"/>
+    <hyperlink ref="N26" r:id="rId48"/>
+    <hyperlink ref="M27" r:id="rId49"/>
+    <hyperlink ref="N27" r:id="rId50"/>
+    <hyperlink ref="M28" r:id="rId51"/>
+    <hyperlink ref="N28" r:id="rId52"/>
+    <hyperlink ref="M29" r:id="rId53"/>
+    <hyperlink ref="N29" r:id="rId54"/>
+    <hyperlink ref="M30" r:id="rId55"/>
+    <hyperlink ref="N30" r:id="rId56"/>
+    <hyperlink ref="M31" r:id="rId57"/>
+    <hyperlink ref="N31" r:id="rId58"/>
+    <hyperlink ref="M32" r:id="rId59"/>
+    <hyperlink ref="N32" r:id="rId60"/>
+    <hyperlink ref="M33" r:id="rId61"/>
+    <hyperlink ref="N33" r:id="rId62"/>
+    <hyperlink ref="M34" r:id="rId63"/>
+    <hyperlink ref="N34" r:id="rId64"/>
+    <hyperlink ref="M35" r:id="rId65"/>
+    <hyperlink ref="N35" r:id="rId66"/>
+    <hyperlink ref="M36" r:id="rId67"/>
+    <hyperlink ref="N36" r:id="rId68"/>
+    <hyperlink ref="M37" r:id="rId69"/>
+    <hyperlink ref="N37" r:id="rId70"/>
+    <hyperlink ref="M38" r:id="rId71"/>
+    <hyperlink ref="N38" r:id="rId72"/>
+    <hyperlink ref="M39" r:id="rId73"/>
+    <hyperlink ref="N39" r:id="rId74"/>
+    <hyperlink ref="M40" r:id="rId75"/>
+    <hyperlink ref="N40" r:id="rId76"/>
+    <hyperlink ref="M41" r:id="rId77"/>
+    <hyperlink ref="N41" r:id="rId78"/>
+    <hyperlink ref="M42" r:id="rId79"/>
+    <hyperlink ref="N42" r:id="rId80"/>
+    <hyperlink ref="M43" r:id="rId81"/>
+    <hyperlink ref="N43" r:id="rId82"/>
+    <hyperlink ref="M44" r:id="rId83"/>
+    <hyperlink ref="N44" r:id="rId84"/>
+    <hyperlink ref="M45" r:id="rId85"/>
+    <hyperlink ref="N45" r:id="rId86"/>
+    <hyperlink ref="M46" r:id="rId87"/>
+    <hyperlink ref="N46" r:id="rId88"/>
+    <hyperlink ref="M47" r:id="rId89"/>
+    <hyperlink ref="N47" r:id="rId90"/>
+    <hyperlink ref="M48" r:id="rId91"/>
+    <hyperlink ref="N48" r:id="rId92"/>
+    <hyperlink ref="M49" r:id="rId93"/>
+    <hyperlink ref="N49" r:id="rId94"/>
+    <hyperlink ref="M50" r:id="rId95"/>
+    <hyperlink ref="N50" r:id="rId96"/>
+    <hyperlink ref="M51" r:id="rId97"/>
+    <hyperlink ref="N51" r:id="rId98"/>
+    <hyperlink ref="M52" r:id="rId99"/>
+    <hyperlink ref="N52" r:id="rId100"/>
+    <hyperlink ref="M53" r:id="rId101"/>
+    <hyperlink ref="N53" r:id="rId102"/>
+    <hyperlink ref="M54" r:id="rId103"/>
+    <hyperlink ref="N54" r:id="rId104"/>
+    <hyperlink ref="M55" r:id="rId105"/>
+    <hyperlink ref="N55" r:id="rId106"/>
+    <hyperlink ref="M56" r:id="rId107"/>
+    <hyperlink ref="N56" r:id="rId108"/>
+    <hyperlink ref="M57" r:id="rId109"/>
+    <hyperlink ref="N57" r:id="rId110"/>
+    <hyperlink ref="M58" r:id="rId111"/>
+    <hyperlink ref="N58" r:id="rId112"/>
+    <hyperlink ref="M59" r:id="rId113"/>
+    <hyperlink ref="N59" r:id="rId114"/>
+    <hyperlink ref="M60" r:id="rId115"/>
+    <hyperlink ref="N60" r:id="rId116"/>
+    <hyperlink ref="M61" r:id="rId117"/>
+    <hyperlink ref="N61" r:id="rId118"/>
+    <hyperlink ref="M62" r:id="rId119"/>
+    <hyperlink ref="N62" r:id="rId120"/>
+    <hyperlink ref="M63" r:id="rId121"/>
+    <hyperlink ref="N63" r:id="rId122"/>
+    <hyperlink ref="M64" r:id="rId123"/>
+    <hyperlink ref="N64" r:id="rId124"/>
+    <hyperlink ref="M65" r:id="rId125"/>
+    <hyperlink ref="N65" r:id="rId126"/>
+    <hyperlink ref="M66" r:id="rId127"/>
+    <hyperlink ref="N66" r:id="rId128"/>
+    <hyperlink ref="M67" r:id="rId129"/>
+    <hyperlink ref="N67" r:id="rId130"/>
+    <hyperlink ref="M68" r:id="rId131"/>
+    <hyperlink ref="N68" r:id="rId132"/>
+    <hyperlink ref="M69" r:id="rId133"/>
+    <hyperlink ref="N69" r:id="rId134"/>
+    <hyperlink ref="M70" r:id="rId135"/>
+    <hyperlink ref="N70" r:id="rId136"/>
+    <hyperlink ref="M71" r:id="rId137"/>
+    <hyperlink ref="N71" r:id="rId138"/>
+    <hyperlink ref="M72" r:id="rId139"/>
+    <hyperlink ref="N72" r:id="rId140"/>
+    <hyperlink ref="M73" r:id="rId141"/>
+    <hyperlink ref="N73" r:id="rId142"/>
+    <hyperlink ref="M74" r:id="rId143"/>
+    <hyperlink ref="N74" r:id="rId144"/>
+    <hyperlink ref="M75" r:id="rId145"/>
+    <hyperlink ref="N75" r:id="rId146"/>
+    <hyperlink ref="M76" r:id="rId147"/>
+    <hyperlink ref="N76" r:id="rId148"/>
+    <hyperlink ref="M77" r:id="rId149"/>
+    <hyperlink ref="N77" r:id="rId150"/>
+    <hyperlink ref="M78" r:id="rId151"/>
+    <hyperlink ref="N78" r:id="rId152"/>
+    <hyperlink ref="M79" r:id="rId153"/>
+    <hyperlink ref="N79" r:id="rId154"/>
+    <hyperlink ref="M80" r:id="rId155"/>
+    <hyperlink ref="N80" r:id="rId156"/>
+    <hyperlink ref="M81" r:id="rId157"/>
+    <hyperlink ref="N81" r:id="rId158"/>
+    <hyperlink ref="M82" r:id="rId159"/>
+    <hyperlink ref="N82" r:id="rId160"/>
+    <hyperlink ref="M83" r:id="rId161"/>
+    <hyperlink ref="N83" r:id="rId162"/>
+    <hyperlink ref="M84" r:id="rId163"/>
+    <hyperlink ref="N84" r:id="rId164"/>
+    <hyperlink ref="M85" r:id="rId165"/>
+    <hyperlink ref="N85" r:id="rId166"/>
+    <hyperlink ref="M86" r:id="rId167"/>
+    <hyperlink ref="N86" r:id="rId168"/>
+    <hyperlink ref="M87" r:id="rId169"/>
+    <hyperlink ref="N87" r:id="rId170"/>
+    <hyperlink ref="M88" r:id="rId171"/>
+    <hyperlink ref="N88" r:id="rId172"/>
+    <hyperlink ref="M89" r:id="rId173"/>
+    <hyperlink ref="N89" r:id="rId174"/>
+    <hyperlink ref="M90" r:id="rId175"/>
+    <hyperlink ref="N90" r:id="rId176"/>
+    <hyperlink ref="M91" r:id="rId177"/>
+    <hyperlink ref="N91" r:id="rId178"/>
+    <hyperlink ref="M92" r:id="rId179"/>
+    <hyperlink ref="N92" r:id="rId180"/>
+    <hyperlink ref="M93" r:id="rId181"/>
+    <hyperlink ref="N93" r:id="rId182"/>
+    <hyperlink ref="M94" r:id="rId183"/>
+    <hyperlink ref="N94" r:id="rId184"/>
+    <hyperlink ref="M95" r:id="rId185"/>
+    <hyperlink ref="N95" r:id="rId186"/>
+    <hyperlink ref="M96" r:id="rId187"/>
+    <hyperlink ref="N96" r:id="rId188"/>
+    <hyperlink ref="M97" r:id="rId189"/>
+    <hyperlink ref="N97" r:id="rId190"/>
+    <hyperlink ref="M98" r:id="rId191"/>
+    <hyperlink ref="N98" r:id="rId192"/>
+    <hyperlink ref="M99" r:id="rId193"/>
+    <hyperlink ref="N99" r:id="rId194"/>
+    <hyperlink ref="M100" r:id="rId195"/>
+    <hyperlink ref="N100" r:id="rId196"/>
+    <hyperlink ref="M101" r:id="rId197"/>
+    <hyperlink ref="N101" r:id="rId198"/>
+    <hyperlink ref="M102" r:id="rId199"/>
+    <hyperlink ref="N102" r:id="rId200"/>
+    <hyperlink ref="M103" r:id="rId201"/>
+    <hyperlink ref="N103" r:id="rId202"/>
+    <hyperlink ref="M104" r:id="rId203"/>
+    <hyperlink ref="N104" r:id="rId204"/>
+    <hyperlink ref="M105" r:id="rId205"/>
+    <hyperlink ref="N105" r:id="rId206"/>
+    <hyperlink ref="M106" r:id="rId207"/>
+    <hyperlink ref="N106" r:id="rId208"/>
+    <hyperlink ref="M107" r:id="rId209"/>
+    <hyperlink ref="N107" r:id="rId210"/>
+    <hyperlink ref="M108" r:id="rId211"/>
+    <hyperlink ref="N108" r:id="rId212"/>
+    <hyperlink ref="M109" r:id="rId213"/>
+    <hyperlink ref="N109" r:id="rId214"/>
+    <hyperlink ref="M110" r:id="rId215"/>
+    <hyperlink ref="N110" r:id="rId216"/>
+    <hyperlink ref="M111" r:id="rId217"/>
+    <hyperlink ref="N111" r:id="rId218"/>
+    <hyperlink ref="M112" r:id="rId219"/>
+    <hyperlink ref="N112" r:id="rId220"/>
+    <hyperlink ref="M113" r:id="rId221"/>
+    <hyperlink ref="N113" r:id="rId222"/>
+    <hyperlink ref="M114" r:id="rId223"/>
+    <hyperlink ref="N114" r:id="rId224"/>
+    <hyperlink ref="M115" r:id="rId225"/>
+    <hyperlink ref="N115" r:id="rId226"/>
+    <hyperlink ref="M116" r:id="rId227"/>
+    <hyperlink ref="N116" r:id="rId228"/>
+    <hyperlink ref="M117" r:id="rId229"/>
+    <hyperlink ref="N117" r:id="rId230"/>
+    <hyperlink ref="M118" r:id="rId231"/>
+    <hyperlink ref="N118" r:id="rId232"/>
+    <hyperlink ref="M119" r:id="rId233"/>
+    <hyperlink ref="N119" r:id="rId234"/>
+    <hyperlink ref="M120" r:id="rId235"/>
+    <hyperlink ref="N120" r:id="rId236"/>
+    <hyperlink ref="M121" r:id="rId237"/>
+    <hyperlink ref="N121" r:id="rId238"/>
+    <hyperlink ref="M122" r:id="rId239"/>
+    <hyperlink ref="N122" r:id="rId240"/>
+    <hyperlink ref="M123" r:id="rId241"/>
+    <hyperlink ref="N123" r:id="rId242"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13863,7 +13742,7 @@
       <c r="J3">
         <v>39.95</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" t="s">
         <v>425</v>
       </c>
       <c r="L3" t="s">
@@ -13913,7 +13792,7 @@
       <c r="J4">
         <v>59.95</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" t="s">
         <v>425</v>
       </c>
       <c r="L4" t="s">
@@ -13960,7 +13839,7 @@
       <c r="J5">
         <v>59.95</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" t="s">
         <v>425</v>
       </c>
       <c r="L5" t="s">
@@ -14000,15 +13879,12 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1"/>
-    <hyperlink ref="M3" r:id="rId2"/>
-    <hyperlink ref="N3" r:id="rId3"/>
-    <hyperlink ref="K4" r:id="rId4"/>
-    <hyperlink ref="M4" r:id="rId5"/>
-    <hyperlink ref="N4" r:id="rId6"/>
-    <hyperlink ref="K5" r:id="rId7"/>
-    <hyperlink ref="M5" r:id="rId8"/>
-    <hyperlink ref="N5" r:id="rId9"/>
+    <hyperlink ref="M3" r:id="rId1"/>
+    <hyperlink ref="N3" r:id="rId2"/>
+    <hyperlink ref="M4" r:id="rId3"/>
+    <hyperlink ref="N4" r:id="rId4"/>
+    <hyperlink ref="M5" r:id="rId5"/>
+    <hyperlink ref="N5" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14124,7 +14000,7 @@
       <c r="J3">
         <v>19.99</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" t="s">
         <v>425</v>
       </c>
       <c r="L3" t="s">
@@ -14177,7 +14053,7 @@
       <c r="J4">
         <v>16.99</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" t="s">
         <v>425</v>
       </c>
       <c r="L4" t="s">
@@ -14227,7 +14103,7 @@
       <c r="J5">
         <v>19.99</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" t="s">
         <v>425</v>
       </c>
       <c r="L5" t="s">
@@ -14277,7 +14153,7 @@
       <c r="J6">
         <v>19.99</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" t="s">
         <v>425</v>
       </c>
       <c r="L6" t="s">
@@ -14327,7 +14203,7 @@
       <c r="J7">
         <v>19.99</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" t="s">
         <v>425</v>
       </c>
       <c r="L7" t="s">
@@ -14377,7 +14253,7 @@
       <c r="J8">
         <v>19.99</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" t="s">
         <v>425</v>
       </c>
       <c r="L8" t="s">
@@ -14427,7 +14303,7 @@
       <c r="J9">
         <v>19.99</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" t="s">
         <v>425</v>
       </c>
       <c r="L9" t="s">
@@ -14477,7 +14353,7 @@
       <c r="J10">
         <v>23.99</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" t="s">
         <v>425</v>
       </c>
       <c r="L10" t="s">
@@ -14527,7 +14403,7 @@
       <c r="J11">
         <v>19.99</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" t="s">
         <v>425</v>
       </c>
       <c r="L11" t="s">
@@ -14577,7 +14453,7 @@
       <c r="J12">
         <v>19.99</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" t="s">
         <v>425</v>
       </c>
       <c r="L12" t="s">
@@ -14627,7 +14503,7 @@
       <c r="J13">
         <v>23.99</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" t="s">
         <v>425</v>
       </c>
       <c r="L13" t="s">
@@ -14677,7 +14553,7 @@
       <c r="J14">
         <v>23.99</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" t="s">
         <v>425</v>
       </c>
       <c r="L14" t="s">
@@ -14727,7 +14603,7 @@
       <c r="J15">
         <v>24.99</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" t="s">
         <v>425</v>
       </c>
       <c r="L15" t="s">
@@ -14780,7 +14656,7 @@
       <c r="J16">
         <v>39.97</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" t="s">
         <v>425</v>
       </c>
       <c r="L16" t="s">
@@ -14830,7 +14706,7 @@
       <c r="J17">
         <v>23.99</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" t="s">
         <v>425</v>
       </c>
       <c r="L17" t="s">
@@ -14880,7 +14756,7 @@
       <c r="J18">
         <v>24.99</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" t="s">
         <v>425</v>
       </c>
       <c r="L18" t="s">
@@ -14933,7 +14809,7 @@
       <c r="J19">
         <v>32.39</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" t="s">
         <v>425</v>
       </c>
       <c r="L19" t="s">
@@ -14973,57 +14849,40 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1"/>
-    <hyperlink ref="M3" r:id="rId2"/>
-    <hyperlink ref="N3" r:id="rId3"/>
-    <hyperlink ref="K4" r:id="rId4"/>
-    <hyperlink ref="M4" r:id="rId5"/>
-    <hyperlink ref="N4" r:id="rId6"/>
-    <hyperlink ref="K5" r:id="rId7"/>
-    <hyperlink ref="M5" r:id="rId8"/>
-    <hyperlink ref="N5" r:id="rId9"/>
-    <hyperlink ref="K6" r:id="rId10"/>
-    <hyperlink ref="M6" r:id="rId11"/>
-    <hyperlink ref="N6" r:id="rId12"/>
-    <hyperlink ref="K7" r:id="rId13"/>
-    <hyperlink ref="M7" r:id="rId14"/>
-    <hyperlink ref="N7" r:id="rId15"/>
-    <hyperlink ref="K8" r:id="rId16"/>
-    <hyperlink ref="M8" r:id="rId17"/>
-    <hyperlink ref="N8" r:id="rId18"/>
-    <hyperlink ref="K9" r:id="rId19"/>
-    <hyperlink ref="M9" r:id="rId20"/>
-    <hyperlink ref="N9" r:id="rId21"/>
-    <hyperlink ref="K10" r:id="rId22"/>
-    <hyperlink ref="M10" r:id="rId23"/>
-    <hyperlink ref="N10" r:id="rId24"/>
-    <hyperlink ref="K11" r:id="rId25"/>
-    <hyperlink ref="M11" r:id="rId26"/>
-    <hyperlink ref="N11" r:id="rId27"/>
-    <hyperlink ref="K12" r:id="rId28"/>
-    <hyperlink ref="M12" r:id="rId29"/>
-    <hyperlink ref="N12" r:id="rId30"/>
-    <hyperlink ref="K13" r:id="rId31"/>
-    <hyperlink ref="M13" r:id="rId32"/>
-    <hyperlink ref="N13" r:id="rId33"/>
-    <hyperlink ref="K14" r:id="rId34"/>
-    <hyperlink ref="M14" r:id="rId35"/>
-    <hyperlink ref="N14" r:id="rId36"/>
-    <hyperlink ref="K15" r:id="rId37"/>
-    <hyperlink ref="M15" r:id="rId38"/>
-    <hyperlink ref="N15" r:id="rId39"/>
-    <hyperlink ref="K16" r:id="rId40"/>
-    <hyperlink ref="M16" r:id="rId41"/>
-    <hyperlink ref="N16" r:id="rId42"/>
-    <hyperlink ref="K17" r:id="rId43"/>
-    <hyperlink ref="M17" r:id="rId44"/>
-    <hyperlink ref="N17" r:id="rId45"/>
-    <hyperlink ref="K18" r:id="rId46"/>
-    <hyperlink ref="M18" r:id="rId47"/>
-    <hyperlink ref="N18" r:id="rId48"/>
-    <hyperlink ref="K19" r:id="rId49"/>
-    <hyperlink ref="M19" r:id="rId50"/>
-    <hyperlink ref="N19" r:id="rId51"/>
+    <hyperlink ref="M3" r:id="rId1"/>
+    <hyperlink ref="N3" r:id="rId2"/>
+    <hyperlink ref="M4" r:id="rId3"/>
+    <hyperlink ref="N4" r:id="rId4"/>
+    <hyperlink ref="M5" r:id="rId5"/>
+    <hyperlink ref="N5" r:id="rId6"/>
+    <hyperlink ref="M6" r:id="rId7"/>
+    <hyperlink ref="N6" r:id="rId8"/>
+    <hyperlink ref="M7" r:id="rId9"/>
+    <hyperlink ref="N7" r:id="rId10"/>
+    <hyperlink ref="M8" r:id="rId11"/>
+    <hyperlink ref="N8" r:id="rId12"/>
+    <hyperlink ref="M9" r:id="rId13"/>
+    <hyperlink ref="N9" r:id="rId14"/>
+    <hyperlink ref="M10" r:id="rId15"/>
+    <hyperlink ref="N10" r:id="rId16"/>
+    <hyperlink ref="M11" r:id="rId17"/>
+    <hyperlink ref="N11" r:id="rId18"/>
+    <hyperlink ref="M12" r:id="rId19"/>
+    <hyperlink ref="N12" r:id="rId20"/>
+    <hyperlink ref="M13" r:id="rId21"/>
+    <hyperlink ref="N13" r:id="rId22"/>
+    <hyperlink ref="M14" r:id="rId23"/>
+    <hyperlink ref="N14" r:id="rId24"/>
+    <hyperlink ref="M15" r:id="rId25"/>
+    <hyperlink ref="N15" r:id="rId26"/>
+    <hyperlink ref="M16" r:id="rId27"/>
+    <hyperlink ref="N16" r:id="rId28"/>
+    <hyperlink ref="M17" r:id="rId29"/>
+    <hyperlink ref="N17" r:id="rId30"/>
+    <hyperlink ref="M18" r:id="rId31"/>
+    <hyperlink ref="N18" r:id="rId32"/>
+    <hyperlink ref="M19" r:id="rId33"/>
+    <hyperlink ref="N19" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15142,7 +15001,7 @@
       <c r="J3">
         <v>39.99</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" t="s">
         <v>425</v>
       </c>
       <c r="L3" t="s">
@@ -15192,7 +15051,7 @@
       <c r="J4">
         <v>269.99</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" t="s">
         <v>425</v>
       </c>
       <c r="L4" t="s">
@@ -15245,7 +15104,7 @@
       <c r="J5">
         <v>39.99</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" t="s">
         <v>425</v>
       </c>
       <c r="L5" t="s">
@@ -15295,7 +15154,7 @@
       <c r="J6">
         <v>60</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" t="s">
         <v>425</v>
       </c>
       <c r="L6" t="s">
@@ -15345,7 +15204,7 @@
       <c r="J7">
         <v>150</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" t="s">
         <v>425</v>
       </c>
       <c r="L7" t="s">
@@ -15398,7 +15257,7 @@
       <c r="J8">
         <v>29.99</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" t="s">
         <v>425</v>
       </c>
       <c r="L8" t="s">
@@ -15445,7 +15304,7 @@
       <c r="J9">
         <v>30</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" t="s">
         <v>425</v>
       </c>
       <c r="L9" t="s">
@@ -15495,7 +15354,7 @@
       <c r="J10">
         <v>300</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" t="s">
         <v>425</v>
       </c>
       <c r="L10" t="s">
@@ -15542,7 +15401,7 @@
       <c r="J11">
         <v>300</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" t="s">
         <v>425</v>
       </c>
       <c r="L11" t="s">
@@ -15589,7 +15448,7 @@
       <c r="J12">
         <v>300</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" t="s">
         <v>425</v>
       </c>
       <c r="L12" t="s">
@@ -15639,7 +15498,7 @@
       <c r="J13">
         <v>50</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" t="s">
         <v>425</v>
       </c>
       <c r="L13" t="s">
@@ -15689,7 +15548,7 @@
       <c r="J14">
         <v>30</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" t="s">
         <v>425</v>
       </c>
       <c r="L14" t="s">
@@ -15739,7 +15598,7 @@
       <c r="J15">
         <v>17</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" t="s">
         <v>425</v>
       </c>
       <c r="L15" t="s">
@@ -15792,7 +15651,7 @@
       <c r="J16">
         <v>30</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" t="s">
         <v>425</v>
       </c>
       <c r="L16" t="s">
@@ -15845,7 +15704,7 @@
       <c r="J17">
         <v>18</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" t="s">
         <v>425</v>
       </c>
       <c r="L17" t="s">
@@ -15898,7 +15757,7 @@
       <c r="J18">
         <v>150</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" t="s">
         <v>425</v>
       </c>
       <c r="L18" t="s">
@@ -15948,7 +15807,7 @@
       <c r="J19">
         <v>17</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" t="s">
         <v>425</v>
       </c>
       <c r="L19" t="s">
@@ -16001,7 +15860,7 @@
       <c r="J20">
         <v>18</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" t="s">
         <v>425</v>
       </c>
       <c r="L20" t="s">
@@ -16051,7 +15910,7 @@
       <c r="J21">
         <v>49.99</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" t="s">
         <v>425</v>
       </c>
       <c r="L21" t="s">
@@ -16104,7 +15963,7 @@
       <c r="J22">
         <v>17</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" t="s">
         <v>425</v>
       </c>
       <c r="L22" t="s">
@@ -16154,7 +16013,7 @@
       <c r="J23">
         <v>64.98999999999999</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" t="s">
         <v>425</v>
       </c>
       <c r="L23" t="s">
@@ -16207,7 +16066,7 @@
       <c r="J24">
         <v>19.99</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" t="s">
         <v>425</v>
       </c>
       <c r="L24" t="s">
@@ -16260,7 +16119,7 @@
       <c r="J25">
         <v>17.99</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" t="s">
         <v>425</v>
       </c>
       <c r="L25" t="s">
@@ -16313,7 +16172,7 @@
       <c r="J26">
         <v>17.99</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" t="s">
         <v>425</v>
       </c>
       <c r="L26" t="s">
@@ -16366,7 +16225,7 @@
       <c r="J27">
         <v>35</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" t="s">
         <v>425</v>
       </c>
       <c r="L27" t="s">
@@ -16419,7 +16278,7 @@
       <c r="J28">
         <v>17.99</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" t="s">
         <v>425</v>
       </c>
       <c r="L28" t="s">
@@ -16472,7 +16331,7 @@
       <c r="J29">
         <v>49.99</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" t="s">
         <v>425</v>
       </c>
       <c r="L29" t="s">
@@ -16522,7 +16381,7 @@
       <c r="J30">
         <v>31.99</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" t="s">
         <v>425</v>
       </c>
       <c r="L30" t="s">
@@ -16575,7 +16434,7 @@
       <c r="J31">
         <v>22.97</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" t="s">
         <v>425</v>
       </c>
       <c r="L31" t="s">
@@ -16628,7 +16487,7 @@
       <c r="J32">
         <v>20</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" t="s">
         <v>425</v>
       </c>
       <c r="L32" t="s">
@@ -16681,7 +16540,7 @@
       <c r="J33">
         <v>550</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" t="s">
         <v>425</v>
       </c>
       <c r="L33" t="s">
@@ -16734,7 +16593,7 @@
       <c r="J34">
         <v>20</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" t="s">
         <v>425</v>
       </c>
       <c r="L34" t="s">
@@ -16787,7 +16646,7 @@
       <c r="J35">
         <v>22.99</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="K35" t="s">
         <v>425</v>
       </c>
       <c r="L35" t="s">
@@ -16831,7 +16690,7 @@
       <c r="J36">
         <v>0</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K36" t="s">
         <v>425</v>
       </c>
       <c r="L36" t="s">
@@ -16884,7 +16743,7 @@
       <c r="J37">
         <v>22.97</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="K37" t="s">
         <v>425</v>
       </c>
       <c r="L37" t="s">
@@ -16937,7 +16796,7 @@
       <c r="J38">
         <v>20</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" t="s">
         <v>425</v>
       </c>
       <c r="L38" t="s">
@@ -16990,7 +16849,7 @@
       <c r="J39">
         <v>45</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="K39" t="s">
         <v>425</v>
       </c>
       <c r="L39" t="s">
@@ -17043,7 +16902,7 @@
       <c r="J40">
         <v>24</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" t="s">
         <v>425</v>
       </c>
       <c r="L40" t="s">
@@ -17093,7 +16952,7 @@
       <c r="J41">
         <v>90</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="K41" t="s">
         <v>425</v>
       </c>
       <c r="L41" t="s">
@@ -17146,7 +17005,7 @@
       <c r="J42">
         <v>50</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" t="s">
         <v>425</v>
       </c>
       <c r="L42" t="s">
@@ -17199,7 +17058,7 @@
       <c r="J43">
         <v>64.98999999999999</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K43" t="s">
         <v>425</v>
       </c>
       <c r="L43" t="s">
@@ -17246,7 +17105,7 @@
       <c r="J44">
         <v>20</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K44" t="s">
         <v>425</v>
       </c>
       <c r="L44" t="s">
@@ -17293,7 +17152,7 @@
       <c r="J45">
         <v>37.99</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="K45" t="s">
         <v>425</v>
       </c>
       <c r="L45" t="s">
@@ -17340,7 +17199,7 @@
       <c r="J46">
         <v>19.99</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="K46" t="s">
         <v>425</v>
       </c>
       <c r="L46" t="s">
@@ -17393,7 +17252,7 @@
       <c r="J47">
         <v>20</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K47" t="s">
         <v>425</v>
       </c>
       <c r="L47" t="s">
@@ -17443,7 +17302,7 @@
       <c r="J48">
         <v>100</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K48" t="s">
         <v>425</v>
       </c>
       <c r="L48" t="s">
@@ -17496,7 +17355,7 @@
       <c r="J49">
         <v>29.99</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K49" t="s">
         <v>425</v>
       </c>
       <c r="L49" t="s">
@@ -17546,7 +17405,7 @@
       <c r="J50">
         <v>34.99</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="K50" t="s">
         <v>425</v>
       </c>
       <c r="L50" t="s">
@@ -17599,7 +17458,7 @@
       <c r="J51">
         <v>29.99</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K51" t="s">
         <v>425</v>
       </c>
       <c r="L51" t="s">
@@ -17652,7 +17511,7 @@
       <c r="J52">
         <v>31.99</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="K52" t="s">
         <v>425</v>
       </c>
       <c r="L52" t="s">
@@ -17705,7 +17564,7 @@
       <c r="J53">
         <v>44.99</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="K53" t="s">
         <v>425</v>
       </c>
       <c r="L53" t="s">
@@ -17758,7 +17617,7 @@
       <c r="J54">
         <v>20</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="K54" t="s">
         <v>425</v>
       </c>
       <c r="L54" t="s">
@@ -17811,7 +17670,7 @@
       <c r="J55">
         <v>29.99</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="K55" t="s">
         <v>425</v>
       </c>
       <c r="L55" t="s">
@@ -17864,7 +17723,7 @@
       <c r="J56">
         <v>69.98999999999999</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="K56" t="s">
         <v>425</v>
       </c>
       <c r="L56" t="s">
@@ -17917,7 +17776,7 @@
       <c r="J57">
         <v>19.99</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="K57" t="s">
         <v>425</v>
       </c>
       <c r="L57" t="s">
@@ -17970,7 +17829,7 @@
       <c r="J58">
         <v>20</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="K58" t="s">
         <v>425</v>
       </c>
       <c r="L58" t="s">
@@ -18017,7 +17876,7 @@
       <c r="J59">
         <v>22</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="K59" t="s">
         <v>425</v>
       </c>
       <c r="L59" t="s">
@@ -18064,7 +17923,7 @@
       <c r="J60">
         <v>31.99</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="K60" t="s">
         <v>425</v>
       </c>
       <c r="L60" t="s">
@@ -18104,180 +17963,122 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1"/>
-    <hyperlink ref="M3" r:id="rId2"/>
-    <hyperlink ref="N3" r:id="rId3"/>
-    <hyperlink ref="K4" r:id="rId4"/>
-    <hyperlink ref="M4" r:id="rId5"/>
-    <hyperlink ref="N4" r:id="rId6"/>
-    <hyperlink ref="K5" r:id="rId7"/>
-    <hyperlink ref="M5" r:id="rId8"/>
-    <hyperlink ref="N5" r:id="rId9"/>
-    <hyperlink ref="K6" r:id="rId10"/>
-    <hyperlink ref="M6" r:id="rId11"/>
-    <hyperlink ref="N6" r:id="rId12"/>
-    <hyperlink ref="K7" r:id="rId13"/>
-    <hyperlink ref="M7" r:id="rId14"/>
-    <hyperlink ref="N7" r:id="rId15"/>
-    <hyperlink ref="K8" r:id="rId16"/>
-    <hyperlink ref="M8" r:id="rId17"/>
-    <hyperlink ref="N8" r:id="rId18"/>
-    <hyperlink ref="K9" r:id="rId19"/>
-    <hyperlink ref="M9" r:id="rId20"/>
-    <hyperlink ref="N9" r:id="rId21"/>
-    <hyperlink ref="K10" r:id="rId22"/>
-    <hyperlink ref="M10" r:id="rId23"/>
-    <hyperlink ref="N10" r:id="rId24"/>
-    <hyperlink ref="K11" r:id="rId25"/>
-    <hyperlink ref="M11" r:id="rId26"/>
-    <hyperlink ref="N11" r:id="rId27"/>
-    <hyperlink ref="K12" r:id="rId28"/>
-    <hyperlink ref="M12" r:id="rId29"/>
-    <hyperlink ref="N12" r:id="rId30"/>
-    <hyperlink ref="K13" r:id="rId31"/>
-    <hyperlink ref="M13" r:id="rId32"/>
-    <hyperlink ref="N13" r:id="rId33"/>
-    <hyperlink ref="K14" r:id="rId34"/>
-    <hyperlink ref="M14" r:id="rId35"/>
-    <hyperlink ref="N14" r:id="rId36"/>
-    <hyperlink ref="K15" r:id="rId37"/>
-    <hyperlink ref="M15" r:id="rId38"/>
-    <hyperlink ref="N15" r:id="rId39"/>
-    <hyperlink ref="K16" r:id="rId40"/>
-    <hyperlink ref="M16" r:id="rId41"/>
-    <hyperlink ref="N16" r:id="rId42"/>
-    <hyperlink ref="K17" r:id="rId43"/>
-    <hyperlink ref="M17" r:id="rId44"/>
-    <hyperlink ref="N17" r:id="rId45"/>
-    <hyperlink ref="K18" r:id="rId46"/>
-    <hyperlink ref="M18" r:id="rId47"/>
-    <hyperlink ref="N18" r:id="rId48"/>
-    <hyperlink ref="K19" r:id="rId49"/>
-    <hyperlink ref="M19" r:id="rId50"/>
-    <hyperlink ref="N19" r:id="rId51"/>
-    <hyperlink ref="K20" r:id="rId52"/>
-    <hyperlink ref="M20" r:id="rId53"/>
-    <hyperlink ref="N20" r:id="rId54"/>
-    <hyperlink ref="K21" r:id="rId55"/>
-    <hyperlink ref="M21" r:id="rId56"/>
-    <hyperlink ref="N21" r:id="rId57"/>
-    <hyperlink ref="K22" r:id="rId58"/>
-    <hyperlink ref="M22" r:id="rId59"/>
-    <hyperlink ref="N22" r:id="rId60"/>
-    <hyperlink ref="K23" r:id="rId61"/>
-    <hyperlink ref="M23" r:id="rId62"/>
-    <hyperlink ref="N23" r:id="rId63"/>
-    <hyperlink ref="K24" r:id="rId64"/>
-    <hyperlink ref="M24" r:id="rId65"/>
-    <hyperlink ref="N24" r:id="rId66"/>
-    <hyperlink ref="K25" r:id="rId67"/>
-    <hyperlink ref="M25" r:id="rId68"/>
-    <hyperlink ref="N25" r:id="rId69"/>
-    <hyperlink ref="K26" r:id="rId70"/>
-    <hyperlink ref="M26" r:id="rId71"/>
-    <hyperlink ref="N26" r:id="rId72"/>
-    <hyperlink ref="K27" r:id="rId73"/>
-    <hyperlink ref="M27" r:id="rId74"/>
-    <hyperlink ref="N27" r:id="rId75"/>
-    <hyperlink ref="K28" r:id="rId76"/>
-    <hyperlink ref="M28" r:id="rId77"/>
-    <hyperlink ref="N28" r:id="rId78"/>
-    <hyperlink ref="K29" r:id="rId79"/>
-    <hyperlink ref="M29" r:id="rId80"/>
-    <hyperlink ref="N29" r:id="rId81"/>
-    <hyperlink ref="K30" r:id="rId82"/>
-    <hyperlink ref="M30" r:id="rId83"/>
-    <hyperlink ref="N30" r:id="rId84"/>
-    <hyperlink ref="K31" r:id="rId85"/>
-    <hyperlink ref="M31" r:id="rId86"/>
-    <hyperlink ref="N31" r:id="rId87"/>
-    <hyperlink ref="K32" r:id="rId88"/>
-    <hyperlink ref="M32" r:id="rId89"/>
-    <hyperlink ref="N32" r:id="rId90"/>
-    <hyperlink ref="K33" r:id="rId91"/>
-    <hyperlink ref="M33" r:id="rId92"/>
-    <hyperlink ref="N33" r:id="rId93"/>
-    <hyperlink ref="K34" r:id="rId94"/>
-    <hyperlink ref="M34" r:id="rId95"/>
-    <hyperlink ref="N34" r:id="rId96"/>
-    <hyperlink ref="K35" r:id="rId97"/>
-    <hyperlink ref="M35" r:id="rId98"/>
-    <hyperlink ref="N35" r:id="rId99"/>
-    <hyperlink ref="K36" r:id="rId100"/>
-    <hyperlink ref="M36" r:id="rId101"/>
-    <hyperlink ref="N36" r:id="rId102"/>
-    <hyperlink ref="K37" r:id="rId103"/>
-    <hyperlink ref="M37" r:id="rId104"/>
-    <hyperlink ref="N37" r:id="rId105"/>
-    <hyperlink ref="K38" r:id="rId106"/>
-    <hyperlink ref="M38" r:id="rId107"/>
-    <hyperlink ref="N38" r:id="rId108"/>
-    <hyperlink ref="K39" r:id="rId109"/>
-    <hyperlink ref="M39" r:id="rId110"/>
-    <hyperlink ref="N39" r:id="rId111"/>
-    <hyperlink ref="K40" r:id="rId112"/>
-    <hyperlink ref="M40" r:id="rId113"/>
-    <hyperlink ref="N40" r:id="rId114"/>
-    <hyperlink ref="K41" r:id="rId115"/>
-    <hyperlink ref="M41" r:id="rId116"/>
-    <hyperlink ref="N41" r:id="rId117"/>
-    <hyperlink ref="K42" r:id="rId118"/>
-    <hyperlink ref="M42" r:id="rId119"/>
-    <hyperlink ref="N42" r:id="rId120"/>
-    <hyperlink ref="K43" r:id="rId121"/>
-    <hyperlink ref="M43" r:id="rId122"/>
-    <hyperlink ref="N43" r:id="rId123"/>
-    <hyperlink ref="K44" r:id="rId124"/>
-    <hyperlink ref="M44" r:id="rId125"/>
-    <hyperlink ref="N44" r:id="rId126"/>
-    <hyperlink ref="K45" r:id="rId127"/>
-    <hyperlink ref="M45" r:id="rId128"/>
-    <hyperlink ref="N45" r:id="rId129"/>
-    <hyperlink ref="K46" r:id="rId130"/>
-    <hyperlink ref="M46" r:id="rId131"/>
-    <hyperlink ref="N46" r:id="rId132"/>
-    <hyperlink ref="K47" r:id="rId133"/>
-    <hyperlink ref="M47" r:id="rId134"/>
-    <hyperlink ref="N47" r:id="rId135"/>
-    <hyperlink ref="K48" r:id="rId136"/>
-    <hyperlink ref="M48" r:id="rId137"/>
-    <hyperlink ref="N48" r:id="rId138"/>
-    <hyperlink ref="K49" r:id="rId139"/>
-    <hyperlink ref="M49" r:id="rId140"/>
-    <hyperlink ref="N49" r:id="rId141"/>
-    <hyperlink ref="K50" r:id="rId142"/>
-    <hyperlink ref="M50" r:id="rId143"/>
-    <hyperlink ref="N50" r:id="rId144"/>
-    <hyperlink ref="K51" r:id="rId145"/>
-    <hyperlink ref="M51" r:id="rId146"/>
-    <hyperlink ref="N51" r:id="rId147"/>
-    <hyperlink ref="K52" r:id="rId148"/>
-    <hyperlink ref="M52" r:id="rId149"/>
-    <hyperlink ref="N52" r:id="rId150"/>
-    <hyperlink ref="K53" r:id="rId151"/>
-    <hyperlink ref="M53" r:id="rId152"/>
-    <hyperlink ref="N53" r:id="rId153"/>
-    <hyperlink ref="K54" r:id="rId154"/>
-    <hyperlink ref="M54" r:id="rId155"/>
-    <hyperlink ref="N54" r:id="rId156"/>
-    <hyperlink ref="K55" r:id="rId157"/>
-    <hyperlink ref="M55" r:id="rId158"/>
-    <hyperlink ref="N55" r:id="rId159"/>
-    <hyperlink ref="K56" r:id="rId160"/>
-    <hyperlink ref="M56" r:id="rId161"/>
-    <hyperlink ref="N56" r:id="rId162"/>
-    <hyperlink ref="K57" r:id="rId163"/>
-    <hyperlink ref="M57" r:id="rId164"/>
-    <hyperlink ref="N57" r:id="rId165"/>
-    <hyperlink ref="K58" r:id="rId166"/>
-    <hyperlink ref="M58" r:id="rId167"/>
-    <hyperlink ref="N58" r:id="rId168"/>
-    <hyperlink ref="K59" r:id="rId169"/>
-    <hyperlink ref="M59" r:id="rId170"/>
-    <hyperlink ref="N59" r:id="rId171"/>
-    <hyperlink ref="K60" r:id="rId172"/>
-    <hyperlink ref="M60" r:id="rId173"/>
-    <hyperlink ref="N60" r:id="rId174"/>
+    <hyperlink ref="M3" r:id="rId1"/>
+    <hyperlink ref="N3" r:id="rId2"/>
+    <hyperlink ref="M4" r:id="rId3"/>
+    <hyperlink ref="N4" r:id="rId4"/>
+    <hyperlink ref="M5" r:id="rId5"/>
+    <hyperlink ref="N5" r:id="rId6"/>
+    <hyperlink ref="M6" r:id="rId7"/>
+    <hyperlink ref="N6" r:id="rId8"/>
+    <hyperlink ref="M7" r:id="rId9"/>
+    <hyperlink ref="N7" r:id="rId10"/>
+    <hyperlink ref="M8" r:id="rId11"/>
+    <hyperlink ref="N8" r:id="rId12"/>
+    <hyperlink ref="M9" r:id="rId13"/>
+    <hyperlink ref="N9" r:id="rId14"/>
+    <hyperlink ref="M10" r:id="rId15"/>
+    <hyperlink ref="N10" r:id="rId16"/>
+    <hyperlink ref="M11" r:id="rId17"/>
+    <hyperlink ref="N11" r:id="rId18"/>
+    <hyperlink ref="M12" r:id="rId19"/>
+    <hyperlink ref="N12" r:id="rId20"/>
+    <hyperlink ref="M13" r:id="rId21"/>
+    <hyperlink ref="N13" r:id="rId22"/>
+    <hyperlink ref="M14" r:id="rId23"/>
+    <hyperlink ref="N14" r:id="rId24"/>
+    <hyperlink ref="M15" r:id="rId25"/>
+    <hyperlink ref="N15" r:id="rId26"/>
+    <hyperlink ref="M16" r:id="rId27"/>
+    <hyperlink ref="N16" r:id="rId28"/>
+    <hyperlink ref="M17" r:id="rId29"/>
+    <hyperlink ref="N17" r:id="rId30"/>
+    <hyperlink ref="M18" r:id="rId31"/>
+    <hyperlink ref="N18" r:id="rId32"/>
+    <hyperlink ref="M19" r:id="rId33"/>
+    <hyperlink ref="N19" r:id="rId34"/>
+    <hyperlink ref="M20" r:id="rId35"/>
+    <hyperlink ref="N20" r:id="rId36"/>
+    <hyperlink ref="M21" r:id="rId37"/>
+    <hyperlink ref="N21" r:id="rId38"/>
+    <hyperlink ref="M22" r:id="rId39"/>
+    <hyperlink ref="N22" r:id="rId40"/>
+    <hyperlink ref="M23" r:id="rId41"/>
+    <hyperlink ref="N23" r:id="rId42"/>
+    <hyperlink ref="M24" r:id="rId43"/>
+    <hyperlink ref="N24" r:id="rId44"/>
+    <hyperlink ref="M25" r:id="rId45"/>
+    <hyperlink ref="N25" r:id="rId46"/>
+    <hyperlink ref="M26" r:id="rId47"/>
+    <hyperlink ref="N26" r:id="rId48"/>
+    <hyperlink ref="M27" r:id="rId49"/>
+    <hyperlink ref="N27" r:id="rId50"/>
+    <hyperlink ref="M28" r:id="rId51"/>
+    <hyperlink ref="N28" r:id="rId52"/>
+    <hyperlink ref="M29" r:id="rId53"/>
+    <hyperlink ref="N29" r:id="rId54"/>
+    <hyperlink ref="M30" r:id="rId55"/>
+    <hyperlink ref="N30" r:id="rId56"/>
+    <hyperlink ref="M31" r:id="rId57"/>
+    <hyperlink ref="N31" r:id="rId58"/>
+    <hyperlink ref="M32" r:id="rId59"/>
+    <hyperlink ref="N32" r:id="rId60"/>
+    <hyperlink ref="M33" r:id="rId61"/>
+    <hyperlink ref="N33" r:id="rId62"/>
+    <hyperlink ref="M34" r:id="rId63"/>
+    <hyperlink ref="N34" r:id="rId64"/>
+    <hyperlink ref="M35" r:id="rId65"/>
+    <hyperlink ref="N35" r:id="rId66"/>
+    <hyperlink ref="M36" r:id="rId67"/>
+    <hyperlink ref="N36" r:id="rId68"/>
+    <hyperlink ref="M37" r:id="rId69"/>
+    <hyperlink ref="N37" r:id="rId70"/>
+    <hyperlink ref="M38" r:id="rId71"/>
+    <hyperlink ref="N38" r:id="rId72"/>
+    <hyperlink ref="M39" r:id="rId73"/>
+    <hyperlink ref="N39" r:id="rId74"/>
+    <hyperlink ref="M40" r:id="rId75"/>
+    <hyperlink ref="N40" r:id="rId76"/>
+    <hyperlink ref="M41" r:id="rId77"/>
+    <hyperlink ref="N41" r:id="rId78"/>
+    <hyperlink ref="M42" r:id="rId79"/>
+    <hyperlink ref="N42" r:id="rId80"/>
+    <hyperlink ref="M43" r:id="rId81"/>
+    <hyperlink ref="N43" r:id="rId82"/>
+    <hyperlink ref="M44" r:id="rId83"/>
+    <hyperlink ref="N44" r:id="rId84"/>
+    <hyperlink ref="M45" r:id="rId85"/>
+    <hyperlink ref="N45" r:id="rId86"/>
+    <hyperlink ref="M46" r:id="rId87"/>
+    <hyperlink ref="N46" r:id="rId88"/>
+    <hyperlink ref="M47" r:id="rId89"/>
+    <hyperlink ref="N47" r:id="rId90"/>
+    <hyperlink ref="M48" r:id="rId91"/>
+    <hyperlink ref="N48" r:id="rId92"/>
+    <hyperlink ref="M49" r:id="rId93"/>
+    <hyperlink ref="N49" r:id="rId94"/>
+    <hyperlink ref="M50" r:id="rId95"/>
+    <hyperlink ref="N50" r:id="rId96"/>
+    <hyperlink ref="M51" r:id="rId97"/>
+    <hyperlink ref="N51" r:id="rId98"/>
+    <hyperlink ref="M52" r:id="rId99"/>
+    <hyperlink ref="N52" r:id="rId100"/>
+    <hyperlink ref="M53" r:id="rId101"/>
+    <hyperlink ref="N53" r:id="rId102"/>
+    <hyperlink ref="M54" r:id="rId103"/>
+    <hyperlink ref="N54" r:id="rId104"/>
+    <hyperlink ref="M55" r:id="rId105"/>
+    <hyperlink ref="N55" r:id="rId106"/>
+    <hyperlink ref="M56" r:id="rId107"/>
+    <hyperlink ref="N56" r:id="rId108"/>
+    <hyperlink ref="M57" r:id="rId109"/>
+    <hyperlink ref="N57" r:id="rId110"/>
+    <hyperlink ref="M58" r:id="rId111"/>
+    <hyperlink ref="N58" r:id="rId112"/>
+    <hyperlink ref="M59" r:id="rId113"/>
+    <hyperlink ref="N59" r:id="rId114"/>
+    <hyperlink ref="M60" r:id="rId115"/>
+    <hyperlink ref="N60" r:id="rId116"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18393,7 +18194,7 @@
       <c r="J3">
         <v>49.99</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" t="s">
         <v>425</v>
       </c>
       <c r="L3" t="s">
@@ -18443,7 +18244,7 @@
       <c r="J4">
         <v>24.99</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" t="s">
         <v>425</v>
       </c>
       <c r="L4" t="s">
@@ -18493,7 +18294,7 @@
       <c r="J5">
         <v>74.98999999999999</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" t="s">
         <v>425</v>
       </c>
       <c r="L5" t="s">
@@ -18543,7 +18344,7 @@
       <c r="J6">
         <v>29.99</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" t="s">
         <v>425</v>
       </c>
       <c r="L6" t="s">
@@ -18593,7 +18394,7 @@
       <c r="J7">
         <v>24.99</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" t="s">
         <v>425</v>
       </c>
       <c r="L7" t="s">
@@ -18646,7 +18447,7 @@
       <c r="J8">
         <v>39.99</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" t="s">
         <v>425</v>
       </c>
       <c r="L8" t="s">
@@ -18696,7 +18497,7 @@
       <c r="J9">
         <v>29.99</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" t="s">
         <v>425</v>
       </c>
       <c r="L9" t="s">
@@ -18746,7 +18547,7 @@
       <c r="J10">
         <v>30</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" t="s">
         <v>425</v>
       </c>
       <c r="L10" t="s">
@@ -18796,7 +18597,7 @@
       <c r="J11">
         <v>29.99</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" t="s">
         <v>425</v>
       </c>
       <c r="L11" t="s">
@@ -18846,7 +18647,7 @@
       <c r="J12">
         <v>24.99</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" t="s">
         <v>425</v>
       </c>
       <c r="L12" t="s">
@@ -18896,7 +18697,7 @@
       <c r="J13">
         <v>29.99</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" t="s">
         <v>425</v>
       </c>
       <c r="L13" t="s">
@@ -18946,7 +18747,7 @@
       <c r="J14">
         <v>29.99</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" t="s">
         <v>425</v>
       </c>
       <c r="L14" t="s">
@@ -18996,7 +18797,7 @@
       <c r="J15">
         <v>29.99</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" t="s">
         <v>425</v>
       </c>
       <c r="L15" t="s">
@@ -19046,7 +18847,7 @@
       <c r="J16">
         <v>79.98999999999999</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" t="s">
         <v>425</v>
       </c>
       <c r="L16" t="s">
@@ -19096,7 +18897,7 @@
       <c r="J17">
         <v>44.99</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" t="s">
         <v>425</v>
       </c>
       <c r="L17" t="s">
@@ -19146,7 +18947,7 @@
       <c r="J18">
         <v>39.99</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" t="s">
         <v>425</v>
       </c>
       <c r="L18" t="s">
@@ -19190,7 +18991,7 @@
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" t="s">
         <v>425</v>
       </c>
       <c r="L19" t="s">
@@ -19243,7 +19044,7 @@
       <c r="J20">
         <v>33</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" t="s">
         <v>425</v>
       </c>
       <c r="L20" t="s">
@@ -19293,7 +19094,7 @@
       <c r="J21">
         <v>30</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" t="s">
         <v>425</v>
       </c>
       <c r="L21" t="s">
@@ -19343,7 +19144,7 @@
       <c r="J22">
         <v>91.98999999999999</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" t="s">
         <v>425</v>
       </c>
       <c r="L22" t="s">
@@ -19393,7 +19194,7 @@
       <c r="J23">
         <v>124.99</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" t="s">
         <v>425</v>
       </c>
       <c r="L23" t="s">
@@ -19440,7 +19241,7 @@
       <c r="J24">
         <v>300</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" t="s">
         <v>425</v>
       </c>
       <c r="L24" t="s">
@@ -19480,72 +19281,50 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1"/>
-    <hyperlink ref="M3" r:id="rId2"/>
-    <hyperlink ref="N3" r:id="rId3"/>
-    <hyperlink ref="K4" r:id="rId4"/>
-    <hyperlink ref="M4" r:id="rId5"/>
-    <hyperlink ref="N4" r:id="rId6"/>
-    <hyperlink ref="K5" r:id="rId7"/>
-    <hyperlink ref="M5" r:id="rId8"/>
-    <hyperlink ref="N5" r:id="rId9"/>
-    <hyperlink ref="K6" r:id="rId10"/>
-    <hyperlink ref="M6" r:id="rId11"/>
-    <hyperlink ref="N6" r:id="rId12"/>
-    <hyperlink ref="K7" r:id="rId13"/>
-    <hyperlink ref="M7" r:id="rId14"/>
-    <hyperlink ref="N7" r:id="rId15"/>
-    <hyperlink ref="K8" r:id="rId16"/>
-    <hyperlink ref="M8" r:id="rId17"/>
-    <hyperlink ref="N8" r:id="rId18"/>
-    <hyperlink ref="K9" r:id="rId19"/>
-    <hyperlink ref="M9" r:id="rId20"/>
-    <hyperlink ref="N9" r:id="rId21"/>
-    <hyperlink ref="K10" r:id="rId22"/>
-    <hyperlink ref="M10" r:id="rId23"/>
-    <hyperlink ref="N10" r:id="rId24"/>
-    <hyperlink ref="K11" r:id="rId25"/>
-    <hyperlink ref="M11" r:id="rId26"/>
-    <hyperlink ref="N11" r:id="rId27"/>
-    <hyperlink ref="K12" r:id="rId28"/>
-    <hyperlink ref="M12" r:id="rId29"/>
-    <hyperlink ref="N12" r:id="rId30"/>
-    <hyperlink ref="K13" r:id="rId31"/>
-    <hyperlink ref="M13" r:id="rId32"/>
-    <hyperlink ref="N13" r:id="rId33"/>
-    <hyperlink ref="K14" r:id="rId34"/>
-    <hyperlink ref="M14" r:id="rId35"/>
-    <hyperlink ref="N14" r:id="rId36"/>
-    <hyperlink ref="K15" r:id="rId37"/>
-    <hyperlink ref="M15" r:id="rId38"/>
-    <hyperlink ref="N15" r:id="rId39"/>
-    <hyperlink ref="K16" r:id="rId40"/>
-    <hyperlink ref="M16" r:id="rId41"/>
-    <hyperlink ref="N16" r:id="rId42"/>
-    <hyperlink ref="K17" r:id="rId43"/>
-    <hyperlink ref="M17" r:id="rId44"/>
-    <hyperlink ref="N17" r:id="rId45"/>
-    <hyperlink ref="K18" r:id="rId46"/>
-    <hyperlink ref="M18" r:id="rId47"/>
-    <hyperlink ref="N18" r:id="rId48"/>
-    <hyperlink ref="K19" r:id="rId49"/>
-    <hyperlink ref="M19" r:id="rId50"/>
-    <hyperlink ref="N19" r:id="rId51"/>
-    <hyperlink ref="K20" r:id="rId52"/>
-    <hyperlink ref="M20" r:id="rId53"/>
-    <hyperlink ref="N20" r:id="rId54"/>
-    <hyperlink ref="K21" r:id="rId55"/>
-    <hyperlink ref="M21" r:id="rId56"/>
-    <hyperlink ref="N21" r:id="rId57"/>
-    <hyperlink ref="K22" r:id="rId58"/>
-    <hyperlink ref="M22" r:id="rId59"/>
-    <hyperlink ref="N22" r:id="rId60"/>
-    <hyperlink ref="K23" r:id="rId61"/>
-    <hyperlink ref="M23" r:id="rId62"/>
-    <hyperlink ref="N23" r:id="rId63"/>
-    <hyperlink ref="K24" r:id="rId64"/>
-    <hyperlink ref="M24" r:id="rId65"/>
-    <hyperlink ref="N24" r:id="rId66"/>
+    <hyperlink ref="M3" r:id="rId1"/>
+    <hyperlink ref="N3" r:id="rId2"/>
+    <hyperlink ref="M4" r:id="rId3"/>
+    <hyperlink ref="N4" r:id="rId4"/>
+    <hyperlink ref="M5" r:id="rId5"/>
+    <hyperlink ref="N5" r:id="rId6"/>
+    <hyperlink ref="M6" r:id="rId7"/>
+    <hyperlink ref="N6" r:id="rId8"/>
+    <hyperlink ref="M7" r:id="rId9"/>
+    <hyperlink ref="N7" r:id="rId10"/>
+    <hyperlink ref="M8" r:id="rId11"/>
+    <hyperlink ref="N8" r:id="rId12"/>
+    <hyperlink ref="M9" r:id="rId13"/>
+    <hyperlink ref="N9" r:id="rId14"/>
+    <hyperlink ref="M10" r:id="rId15"/>
+    <hyperlink ref="N10" r:id="rId16"/>
+    <hyperlink ref="M11" r:id="rId17"/>
+    <hyperlink ref="N11" r:id="rId18"/>
+    <hyperlink ref="M12" r:id="rId19"/>
+    <hyperlink ref="N12" r:id="rId20"/>
+    <hyperlink ref="M13" r:id="rId21"/>
+    <hyperlink ref="N13" r:id="rId22"/>
+    <hyperlink ref="M14" r:id="rId23"/>
+    <hyperlink ref="N14" r:id="rId24"/>
+    <hyperlink ref="M15" r:id="rId25"/>
+    <hyperlink ref="N15" r:id="rId26"/>
+    <hyperlink ref="M16" r:id="rId27"/>
+    <hyperlink ref="N16" r:id="rId28"/>
+    <hyperlink ref="M17" r:id="rId29"/>
+    <hyperlink ref="N17" r:id="rId30"/>
+    <hyperlink ref="M18" r:id="rId31"/>
+    <hyperlink ref="N18" r:id="rId32"/>
+    <hyperlink ref="M19" r:id="rId33"/>
+    <hyperlink ref="N19" r:id="rId34"/>
+    <hyperlink ref="M20" r:id="rId35"/>
+    <hyperlink ref="N20" r:id="rId36"/>
+    <hyperlink ref="M21" r:id="rId37"/>
+    <hyperlink ref="N21" r:id="rId38"/>
+    <hyperlink ref="M22" r:id="rId39"/>
+    <hyperlink ref="N22" r:id="rId40"/>
+    <hyperlink ref="M23" r:id="rId41"/>
+    <hyperlink ref="N23" r:id="rId42"/>
+    <hyperlink ref="M24" r:id="rId43"/>
+    <hyperlink ref="N24" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19661,7 +19440,7 @@
       <c r="J3">
         <v>34.99</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" t="s">
         <v>425</v>
       </c>
       <c r="L3" t="s">
@@ -19711,7 +19490,7 @@
       <c r="J4">
         <v>34.99</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" t="s">
         <v>425</v>
       </c>
       <c r="L4" t="s">
@@ -19761,7 +19540,7 @@
       <c r="J5">
         <v>34.99</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" t="s">
         <v>425</v>
       </c>
       <c r="L5" t="s">
@@ -19801,15 +19580,12 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1"/>
-    <hyperlink ref="M3" r:id="rId2"/>
-    <hyperlink ref="N3" r:id="rId3"/>
-    <hyperlink ref="K4" r:id="rId4"/>
-    <hyperlink ref="M4" r:id="rId5"/>
-    <hyperlink ref="N4" r:id="rId6"/>
-    <hyperlink ref="K5" r:id="rId7"/>
-    <hyperlink ref="M5" r:id="rId8"/>
-    <hyperlink ref="N5" r:id="rId9"/>
+    <hyperlink ref="M3" r:id="rId1"/>
+    <hyperlink ref="N3" r:id="rId2"/>
+    <hyperlink ref="M4" r:id="rId3"/>
+    <hyperlink ref="N4" r:id="rId4"/>
+    <hyperlink ref="M5" r:id="rId5"/>
+    <hyperlink ref="N5" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19928,7 +19704,7 @@
       <c r="J3">
         <v>24.99</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" t="s">
         <v>425</v>
       </c>
       <c r="L3" t="s">
@@ -19981,7 +19757,7 @@
       <c r="J4">
         <v>24.97</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" t="s">
         <v>425</v>
       </c>
       <c r="L4" t="s">
@@ -20025,7 +19801,7 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" t="s">
         <v>425</v>
       </c>
       <c r="L5" t="s">
@@ -20078,7 +19854,7 @@
       <c r="J6">
         <v>24.99</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" t="s">
         <v>425</v>
       </c>
       <c r="L6" t="s">
@@ -20131,7 +19907,7 @@
       <c r="J7">
         <v>24.97</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" t="s">
         <v>425</v>
       </c>
       <c r="L7" t="s">
@@ -20178,7 +19954,7 @@
       <c r="J8">
         <v>24.99</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" t="s">
         <v>425</v>
       </c>
       <c r="L8" t="s">
@@ -20231,7 +20007,7 @@
       <c r="J9">
         <v>24.99</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" t="s">
         <v>425</v>
       </c>
       <c r="L9" t="s">
@@ -20284,7 +20060,7 @@
       <c r="J10">
         <v>24.99</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" t="s">
         <v>425</v>
       </c>
       <c r="L10" t="s">
@@ -20337,7 +20113,7 @@
       <c r="J11">
         <v>19.99</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" t="s">
         <v>425</v>
       </c>
       <c r="L11" t="s">
@@ -20390,7 +20166,7 @@
       <c r="J12">
         <v>19.99</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" t="s">
         <v>425</v>
       </c>
       <c r="L12" t="s">
@@ -20443,7 +20219,7 @@
       <c r="J13">
         <v>19.99</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" t="s">
         <v>425</v>
       </c>
       <c r="L13" t="s">
@@ -20496,7 +20272,7 @@
       <c r="J14">
         <v>19.99</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" t="s">
         <v>425</v>
       </c>
       <c r="L14" t="s">
@@ -20549,7 +20325,7 @@
       <c r="J15">
         <v>19.99</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" t="s">
         <v>425</v>
       </c>
       <c r="L15" t="s">
@@ -20602,7 +20378,7 @@
       <c r="J16">
         <v>19.99</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" t="s">
         <v>425</v>
       </c>
       <c r="L16" t="s">
@@ -20655,7 +20431,7 @@
       <c r="J17">
         <v>19.99</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" t="s">
         <v>425</v>
       </c>
       <c r="L17" t="s">
@@ -20708,7 +20484,7 @@
       <c r="J18">
         <v>19.99</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" t="s">
         <v>425</v>
       </c>
       <c r="L18" t="s">
@@ -20761,7 +20537,7 @@
       <c r="J19">
         <v>19.99</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" t="s">
         <v>425</v>
       </c>
       <c r="L19" t="s">
@@ -20814,7 +20590,7 @@
       <c r="J20">
         <v>19.99</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" t="s">
         <v>425</v>
       </c>
       <c r="L20" t="s">
@@ -20867,7 +20643,7 @@
       <c r="J21">
         <v>19.99</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" t="s">
         <v>425</v>
       </c>
       <c r="L21" t="s">
@@ -20920,7 +20696,7 @@
       <c r="J22">
         <v>19.99</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" t="s">
         <v>425</v>
       </c>
       <c r="L22" t="s">
@@ -20973,7 +20749,7 @@
       <c r="J23">
         <v>19.99</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" t="s">
         <v>425</v>
       </c>
       <c r="L23" t="s">
@@ -21026,7 +20802,7 @@
       <c r="J24">
         <v>19.99</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" t="s">
         <v>425</v>
       </c>
       <c r="L24" t="s">
@@ -21079,7 +20855,7 @@
       <c r="J25">
         <v>19.99</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" t="s">
         <v>425</v>
       </c>
       <c r="L25" t="s">
@@ -21129,7 +20905,7 @@
       <c r="J26">
         <v>19.99</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" t="s">
         <v>425</v>
       </c>
       <c r="L26" t="s">
@@ -21182,7 +20958,7 @@
       <c r="J27">
         <v>19.99</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" t="s">
         <v>425</v>
       </c>
       <c r="L27" t="s">
@@ -21235,7 +21011,7 @@
       <c r="J28">
         <v>19.99</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" t="s">
         <v>425</v>
       </c>
       <c r="L28" t="s">
@@ -21288,7 +21064,7 @@
       <c r="J29">
         <v>20.99</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" t="s">
         <v>425</v>
       </c>
       <c r="L29" t="s">
@@ -21341,7 +21117,7 @@
       <c r="J30">
         <v>20.99</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" t="s">
         <v>425</v>
       </c>
       <c r="L30" t="s">
@@ -21394,7 +21170,7 @@
       <c r="J31">
         <v>20.99</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" t="s">
         <v>425</v>
       </c>
       <c r="L31" t="s">
@@ -21447,7 +21223,7 @@
       <c r="J32">
         <v>20.99</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" t="s">
         <v>425</v>
       </c>
       <c r="L32" t="s">
@@ -21500,7 +21276,7 @@
       <c r="J33">
         <v>23.99</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" t="s">
         <v>425</v>
       </c>
       <c r="L33" t="s">
@@ -21553,7 +21329,7 @@
       <c r="J34">
         <v>23.99</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" t="s">
         <v>425</v>
       </c>
       <c r="L34" t="s">
@@ -21606,7 +21382,7 @@
       <c r="J35">
         <v>23.99</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="K35" t="s">
         <v>425</v>
       </c>
       <c r="L35" t="s">
@@ -21659,7 +21435,7 @@
       <c r="J36">
         <v>23.99</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K36" t="s">
         <v>425</v>
       </c>
       <c r="L36" t="s">
@@ -21712,7 +21488,7 @@
       <c r="J37">
         <v>45</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="K37" t="s">
         <v>425</v>
       </c>
       <c r="L37" t="s">
@@ -21765,7 +21541,7 @@
       <c r="J38">
         <v>24.97</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" t="s">
         <v>425</v>
       </c>
       <c r="L38" t="s">
@@ -21805,114 +21581,78 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1"/>
-    <hyperlink ref="M3" r:id="rId2"/>
-    <hyperlink ref="N3" r:id="rId3"/>
-    <hyperlink ref="K4" r:id="rId4"/>
-    <hyperlink ref="M4" r:id="rId5"/>
-    <hyperlink ref="N4" r:id="rId6"/>
-    <hyperlink ref="K5" r:id="rId7"/>
-    <hyperlink ref="M5" r:id="rId8"/>
-    <hyperlink ref="N5" r:id="rId9"/>
-    <hyperlink ref="K6" r:id="rId10"/>
-    <hyperlink ref="M6" r:id="rId11"/>
-    <hyperlink ref="N6" r:id="rId12"/>
-    <hyperlink ref="K7" r:id="rId13"/>
-    <hyperlink ref="M7" r:id="rId14"/>
-    <hyperlink ref="N7" r:id="rId15"/>
-    <hyperlink ref="K8" r:id="rId16"/>
-    <hyperlink ref="M8" r:id="rId17"/>
-    <hyperlink ref="N8" r:id="rId18"/>
-    <hyperlink ref="K9" r:id="rId19"/>
-    <hyperlink ref="M9" r:id="rId20"/>
-    <hyperlink ref="N9" r:id="rId21"/>
-    <hyperlink ref="K10" r:id="rId22"/>
-    <hyperlink ref="M10" r:id="rId23"/>
-    <hyperlink ref="N10" r:id="rId24"/>
-    <hyperlink ref="K11" r:id="rId25"/>
-    <hyperlink ref="M11" r:id="rId26"/>
-    <hyperlink ref="N11" r:id="rId27"/>
-    <hyperlink ref="K12" r:id="rId28"/>
-    <hyperlink ref="M12" r:id="rId29"/>
-    <hyperlink ref="N12" r:id="rId30"/>
-    <hyperlink ref="K13" r:id="rId31"/>
-    <hyperlink ref="M13" r:id="rId32"/>
-    <hyperlink ref="N13" r:id="rId33"/>
-    <hyperlink ref="K14" r:id="rId34"/>
-    <hyperlink ref="M14" r:id="rId35"/>
-    <hyperlink ref="N14" r:id="rId36"/>
-    <hyperlink ref="K15" r:id="rId37"/>
-    <hyperlink ref="M15" r:id="rId38"/>
-    <hyperlink ref="N15" r:id="rId39"/>
-    <hyperlink ref="K16" r:id="rId40"/>
-    <hyperlink ref="M16" r:id="rId41"/>
-    <hyperlink ref="N16" r:id="rId42"/>
-    <hyperlink ref="K17" r:id="rId43"/>
-    <hyperlink ref="M17" r:id="rId44"/>
-    <hyperlink ref="N17" r:id="rId45"/>
-    <hyperlink ref="K18" r:id="rId46"/>
-    <hyperlink ref="M18" r:id="rId47"/>
-    <hyperlink ref="N18" r:id="rId48"/>
-    <hyperlink ref="K19" r:id="rId49"/>
-    <hyperlink ref="M19" r:id="rId50"/>
-    <hyperlink ref="N19" r:id="rId51"/>
-    <hyperlink ref="K20" r:id="rId52"/>
-    <hyperlink ref="M20" r:id="rId53"/>
-    <hyperlink ref="N20" r:id="rId54"/>
-    <hyperlink ref="K21" r:id="rId55"/>
-    <hyperlink ref="M21" r:id="rId56"/>
-    <hyperlink ref="N21" r:id="rId57"/>
-    <hyperlink ref="K22" r:id="rId58"/>
-    <hyperlink ref="M22" r:id="rId59"/>
-    <hyperlink ref="N22" r:id="rId60"/>
-    <hyperlink ref="K23" r:id="rId61"/>
-    <hyperlink ref="M23" r:id="rId62"/>
-    <hyperlink ref="N23" r:id="rId63"/>
-    <hyperlink ref="K24" r:id="rId64"/>
-    <hyperlink ref="M24" r:id="rId65"/>
-    <hyperlink ref="N24" r:id="rId66"/>
-    <hyperlink ref="K25" r:id="rId67"/>
-    <hyperlink ref="M25" r:id="rId68"/>
-    <hyperlink ref="N25" r:id="rId69"/>
-    <hyperlink ref="K26" r:id="rId70"/>
-    <hyperlink ref="M26" r:id="rId71"/>
-    <hyperlink ref="N26" r:id="rId72"/>
-    <hyperlink ref="K27" r:id="rId73"/>
-    <hyperlink ref="M27" r:id="rId74"/>
-    <hyperlink ref="N27" r:id="rId75"/>
-    <hyperlink ref="K28" r:id="rId76"/>
-    <hyperlink ref="M28" r:id="rId77"/>
-    <hyperlink ref="N28" r:id="rId78"/>
-    <hyperlink ref="K29" r:id="rId79"/>
-    <hyperlink ref="M29" r:id="rId80"/>
-    <hyperlink ref="N29" r:id="rId81"/>
-    <hyperlink ref="K30" r:id="rId82"/>
-    <hyperlink ref="M30" r:id="rId83"/>
-    <hyperlink ref="N30" r:id="rId84"/>
-    <hyperlink ref="K31" r:id="rId85"/>
-    <hyperlink ref="M31" r:id="rId86"/>
-    <hyperlink ref="N31" r:id="rId87"/>
-    <hyperlink ref="K32" r:id="rId88"/>
-    <hyperlink ref="M32" r:id="rId89"/>
-    <hyperlink ref="N32" r:id="rId90"/>
-    <hyperlink ref="K33" r:id="rId91"/>
-    <hyperlink ref="M33" r:id="rId92"/>
-    <hyperlink ref="N33" r:id="rId93"/>
-    <hyperlink ref="K34" r:id="rId94"/>
-    <hyperlink ref="M34" r:id="rId95"/>
-    <hyperlink ref="N34" r:id="rId96"/>
-    <hyperlink ref="K35" r:id="rId97"/>
-    <hyperlink ref="M35" r:id="rId98"/>
-    <hyperlink ref="N35" r:id="rId99"/>
-    <hyperlink ref="K36" r:id="rId100"/>
-    <hyperlink ref="M36" r:id="rId101"/>
-    <hyperlink ref="N36" r:id="rId102"/>
-    <hyperlink ref="K37" r:id="rId103"/>
-    <hyperlink ref="M37" r:id="rId104"/>
-    <hyperlink ref="N37" r:id="rId105"/>
-    <hyperlink ref="K38" r:id="rId106"/>
-    <hyperlink ref="M38" r:id="rId107"/>
-    <hyperlink ref="N38" r:id="rId108"/>
+    <hyperlink ref="M3" r:id="rId1"/>
+    <hyperlink ref="N3" r:id="rId2"/>
+    <hyperlink ref="M4" r:id="rId3"/>
+    <hyperlink ref="N4" r:id="rId4"/>
+    <hyperlink ref="M5" r:id="rId5"/>
+    <hyperlink ref="N5" r:id="rId6"/>
+    <hyperlink ref="M6" r:id="rId7"/>
+    <hyperlink ref="N6" r:id="rId8"/>
+    <hyperlink ref="M7" r:id="rId9"/>
+    <hyperlink ref="N7" r:id="rId10"/>
+    <hyperlink ref="M8" r:id="rId11"/>
+    <hyperlink ref="N8" r:id="rId12"/>
+    <hyperlink ref="M9" r:id="rId13"/>
+    <hyperlink ref="N9" r:id="rId14"/>
+    <hyperlink ref="M10" r:id="rId15"/>
+    <hyperlink ref="N10" r:id="rId16"/>
+    <hyperlink ref="M11" r:id="rId17"/>
+    <hyperlink ref="N11" r:id="rId18"/>
+    <hyperlink ref="M12" r:id="rId19"/>
+    <hyperlink ref="N12" r:id="rId20"/>
+    <hyperlink ref="M13" r:id="rId21"/>
+    <hyperlink ref="N13" r:id="rId22"/>
+    <hyperlink ref="M14" r:id="rId23"/>
+    <hyperlink ref="N14" r:id="rId24"/>
+    <hyperlink ref="M15" r:id="rId25"/>
+    <hyperlink ref="N15" r:id="rId26"/>
+    <hyperlink ref="M16" r:id="rId27"/>
+    <hyperlink ref="N16" r:id="rId28"/>
+    <hyperlink ref="M17" r:id="rId29"/>
+    <hyperlink ref="N17" r:id="rId30"/>
+    <hyperlink ref="M18" r:id="rId31"/>
+    <hyperlink ref="N18" r:id="rId32"/>
+    <hyperlink ref="M19" r:id="rId33"/>
+    <hyperlink ref="N19" r:id="rId34"/>
+    <hyperlink ref="M20" r:id="rId35"/>
+    <hyperlink ref="N20" r:id="rId36"/>
+    <hyperlink ref="M21" r:id="rId37"/>
+    <hyperlink ref="N21" r:id="rId38"/>
+    <hyperlink ref="M22" r:id="rId39"/>
+    <hyperlink ref="N22" r:id="rId40"/>
+    <hyperlink ref="M23" r:id="rId41"/>
+    <hyperlink ref="N23" r:id="rId42"/>
+    <hyperlink ref="M24" r:id="rId43"/>
+    <hyperlink ref="N24" r:id="rId44"/>
+    <hyperlink ref="M25" r:id="rId45"/>
+    <hyperlink ref="N25" r:id="rId46"/>
+    <hyperlink ref="M26" r:id="rId47"/>
+    <hyperlink ref="N26" r:id="rId48"/>
+    <hyperlink ref="M27" r:id="rId49"/>
+    <hyperlink ref="N27" r:id="rId50"/>
+    <hyperlink ref="M28" r:id="rId51"/>
+    <hyperlink ref="N28" r:id="rId52"/>
+    <hyperlink ref="M29" r:id="rId53"/>
+    <hyperlink ref="N29" r:id="rId54"/>
+    <hyperlink ref="M30" r:id="rId55"/>
+    <hyperlink ref="N30" r:id="rId56"/>
+    <hyperlink ref="M31" r:id="rId57"/>
+    <hyperlink ref="N31" r:id="rId58"/>
+    <hyperlink ref="M32" r:id="rId59"/>
+    <hyperlink ref="N32" r:id="rId60"/>
+    <hyperlink ref="M33" r:id="rId61"/>
+    <hyperlink ref="N33" r:id="rId62"/>
+    <hyperlink ref="M34" r:id="rId63"/>
+    <hyperlink ref="N34" r:id="rId64"/>
+    <hyperlink ref="M35" r:id="rId65"/>
+    <hyperlink ref="N35" r:id="rId66"/>
+    <hyperlink ref="M36" r:id="rId67"/>
+    <hyperlink ref="N36" r:id="rId68"/>
+    <hyperlink ref="M37" r:id="rId69"/>
+    <hyperlink ref="N37" r:id="rId70"/>
+    <hyperlink ref="M38" r:id="rId71"/>
+    <hyperlink ref="N38" r:id="rId72"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22031,7 +21771,7 @@
       <c r="J3">
         <v>19.99</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" t="s">
         <v>425</v>
       </c>
       <c r="L3" t="s">
@@ -22084,7 +21824,7 @@
       <c r="J4">
         <v>19.99</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" t="s">
         <v>425</v>
       </c>
       <c r="L4" t="s">
@@ -22137,7 +21877,7 @@
       <c r="J5">
         <v>19.99</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" t="s">
         <v>425</v>
       </c>
       <c r="L5" t="s">
@@ -22190,7 +21930,7 @@
       <c r="J6">
         <v>29.99</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" t="s">
         <v>425</v>
       </c>
       <c r="L6" t="s">
@@ -22240,7 +21980,7 @@
       <c r="J7">
         <v>19.99</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" t="s">
         <v>425</v>
       </c>
       <c r="L7" t="s">
@@ -22290,7 +22030,7 @@
       <c r="J8">
         <v>19.99</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" t="s">
         <v>425</v>
       </c>
       <c r="L8" t="s">
@@ -22340,7 +22080,7 @@
       <c r="J9">
         <v>19.99</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" t="s">
         <v>425</v>
       </c>
       <c r="L9" t="s">
@@ -22393,7 +22133,7 @@
       <c r="J10">
         <v>24.99</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" t="s">
         <v>425</v>
       </c>
       <c r="L10" t="s">
@@ -22433,30 +22173,22 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1"/>
-    <hyperlink ref="M3" r:id="rId2"/>
-    <hyperlink ref="N3" r:id="rId3"/>
-    <hyperlink ref="K4" r:id="rId4"/>
-    <hyperlink ref="M4" r:id="rId5"/>
-    <hyperlink ref="N4" r:id="rId6"/>
-    <hyperlink ref="K5" r:id="rId7"/>
-    <hyperlink ref="M5" r:id="rId8"/>
-    <hyperlink ref="N5" r:id="rId9"/>
-    <hyperlink ref="K6" r:id="rId10"/>
-    <hyperlink ref="M6" r:id="rId11"/>
-    <hyperlink ref="N6" r:id="rId12"/>
-    <hyperlink ref="K7" r:id="rId13"/>
-    <hyperlink ref="M7" r:id="rId14"/>
-    <hyperlink ref="N7" r:id="rId15"/>
-    <hyperlink ref="K8" r:id="rId16"/>
-    <hyperlink ref="M8" r:id="rId17"/>
-    <hyperlink ref="N8" r:id="rId18"/>
-    <hyperlink ref="K9" r:id="rId19"/>
-    <hyperlink ref="M9" r:id="rId20"/>
-    <hyperlink ref="N9" r:id="rId21"/>
-    <hyperlink ref="K10" r:id="rId22"/>
-    <hyperlink ref="M10" r:id="rId23"/>
-    <hyperlink ref="N10" r:id="rId24"/>
+    <hyperlink ref="M3" r:id="rId1"/>
+    <hyperlink ref="N3" r:id="rId2"/>
+    <hyperlink ref="M4" r:id="rId3"/>
+    <hyperlink ref="N4" r:id="rId4"/>
+    <hyperlink ref="M5" r:id="rId5"/>
+    <hyperlink ref="N5" r:id="rId6"/>
+    <hyperlink ref="M6" r:id="rId7"/>
+    <hyperlink ref="N6" r:id="rId8"/>
+    <hyperlink ref="M7" r:id="rId9"/>
+    <hyperlink ref="N7" r:id="rId10"/>
+    <hyperlink ref="M8" r:id="rId11"/>
+    <hyperlink ref="N8" r:id="rId12"/>
+    <hyperlink ref="M9" r:id="rId13"/>
+    <hyperlink ref="N9" r:id="rId14"/>
+    <hyperlink ref="M10" r:id="rId15"/>
+    <hyperlink ref="N10" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22575,7 +22307,7 @@
       <c r="J3">
         <v>32.99</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" t="s">
         <v>425</v>
       </c>
       <c r="L3" t="s">
@@ -22628,7 +22360,7 @@
       <c r="J4">
         <v>32.99</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" t="s">
         <v>425</v>
       </c>
       <c r="L4" t="s">
@@ -22681,7 +22413,7 @@
       <c r="J5">
         <v>29.99</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" t="s">
         <v>425</v>
       </c>
       <c r="L5" t="s">
@@ -22734,7 +22466,7 @@
       <c r="J6">
         <v>29.99</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" t="s">
         <v>425</v>
       </c>
       <c r="L6" t="s">
@@ -22774,18 +22506,14 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1"/>
-    <hyperlink ref="M3" r:id="rId2"/>
-    <hyperlink ref="N3" r:id="rId3"/>
-    <hyperlink ref="K4" r:id="rId4"/>
-    <hyperlink ref="M4" r:id="rId5"/>
-    <hyperlink ref="N4" r:id="rId6"/>
-    <hyperlink ref="K5" r:id="rId7"/>
-    <hyperlink ref="M5" r:id="rId8"/>
-    <hyperlink ref="N5" r:id="rId9"/>
-    <hyperlink ref="K6" r:id="rId10"/>
-    <hyperlink ref="M6" r:id="rId11"/>
-    <hyperlink ref="N6" r:id="rId12"/>
+    <hyperlink ref="M3" r:id="rId1"/>
+    <hyperlink ref="N3" r:id="rId2"/>
+    <hyperlink ref="M4" r:id="rId3"/>
+    <hyperlink ref="N4" r:id="rId4"/>
+    <hyperlink ref="M5" r:id="rId5"/>
+    <hyperlink ref="N5" r:id="rId6"/>
+    <hyperlink ref="M6" r:id="rId7"/>
+    <hyperlink ref="N6" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22904,7 +22632,7 @@
       <c r="J3">
         <v>19.99</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" t="s">
         <v>425</v>
       </c>
       <c r="L3" t="s">
@@ -22954,7 +22682,7 @@
       <c r="J4">
         <v>19.99</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" t="s">
         <v>425</v>
       </c>
       <c r="L4" t="s">
@@ -23007,7 +22735,7 @@
       <c r="J5">
         <v>19.99</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" t="s">
         <v>425</v>
       </c>
       <c r="L5" t="s">
@@ -23060,7 +22788,7 @@
       <c r="J6">
         <v>19.99</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" t="s">
         <v>425</v>
       </c>
       <c r="L6" t="s">
@@ -23110,7 +22838,7 @@
       <c r="J7">
         <v>19.99</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" t="s">
         <v>425</v>
       </c>
       <c r="L7" t="s">
@@ -23163,7 +22891,7 @@
       <c r="J8">
         <v>19.99</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" t="s">
         <v>425</v>
       </c>
       <c r="L8" t="s">
@@ -23216,7 +22944,7 @@
       <c r="J9">
         <v>19.99</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" t="s">
         <v>425</v>
       </c>
       <c r="L9" t="s">
@@ -23269,7 +22997,7 @@
       <c r="J10">
         <v>19.99</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" t="s">
         <v>425</v>
       </c>
       <c r="L10" t="s">
@@ -23319,7 +23047,7 @@
       <c r="J11">
         <v>19.99</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" t="s">
         <v>425</v>
       </c>
       <c r="L11" t="s">
@@ -23369,7 +23097,7 @@
       <c r="J12">
         <v>19.99</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" t="s">
         <v>425</v>
       </c>
       <c r="L12" t="s">
@@ -23422,7 +23150,7 @@
       <c r="J13">
         <v>19.99</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" t="s">
         <v>425</v>
       </c>
       <c r="L13" t="s">
@@ -23472,7 +23200,7 @@
       <c r="J14">
         <v>19.99</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" t="s">
         <v>425</v>
       </c>
       <c r="L14" t="s">
@@ -23525,7 +23253,7 @@
       <c r="J15">
         <v>19.99</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" t="s">
         <v>425</v>
       </c>
       <c r="L15" t="s">
@@ -23578,7 +23306,7 @@
       <c r="J16">
         <v>19.99</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" t="s">
         <v>425</v>
       </c>
       <c r="L16" t="s">
@@ -23628,7 +23356,7 @@
       <c r="J17">
         <v>19.99</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" t="s">
         <v>425</v>
       </c>
       <c r="L17" t="s">
@@ -23678,7 +23406,7 @@
       <c r="J18">
         <v>19.99</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" t="s">
         <v>425</v>
       </c>
       <c r="L18" t="s">
@@ -23731,7 +23459,7 @@
       <c r="J19">
         <v>19.99</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" t="s">
         <v>425</v>
       </c>
       <c r="L19" t="s">
@@ -23781,7 +23509,7 @@
       <c r="J20">
         <v>19.99</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" t="s">
         <v>425</v>
       </c>
       <c r="L20" t="s">
@@ -23834,7 +23562,7 @@
       <c r="J21">
         <v>19.99</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" t="s">
         <v>425</v>
       </c>
       <c r="L21" t="s">
@@ -23884,7 +23612,7 @@
       <c r="J22">
         <v>19.99</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" t="s">
         <v>425</v>
       </c>
       <c r="L22" t="s">
@@ -23937,7 +23665,7 @@
       <c r="J23">
         <v>19.99</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" t="s">
         <v>425</v>
       </c>
       <c r="L23" t="s">
@@ -23990,7 +23718,7 @@
       <c r="J24">
         <v>19.99</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" t="s">
         <v>425</v>
       </c>
       <c r="L24" t="s">
@@ -24043,7 +23771,7 @@
       <c r="J25">
         <v>19.99</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" t="s">
         <v>425</v>
       </c>
       <c r="L25" t="s">
@@ -24096,7 +23824,7 @@
       <c r="J26">
         <v>19.99</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" t="s">
         <v>425</v>
       </c>
       <c r="L26" t="s">
@@ -24149,7 +23877,7 @@
       <c r="J27">
         <v>19.99</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" t="s">
         <v>425</v>
       </c>
       <c r="L27" t="s">
@@ -24199,7 +23927,7 @@
       <c r="J28">
         <v>19.99</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" t="s">
         <v>425</v>
       </c>
       <c r="L28" t="s">
@@ -24252,7 +23980,7 @@
       <c r="J29">
         <v>19.99</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" t="s">
         <v>425</v>
       </c>
       <c r="L29" t="s">
@@ -24302,7 +24030,7 @@
       <c r="J30">
         <v>19.99</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" t="s">
         <v>425</v>
       </c>
       <c r="L30" t="s">
@@ -24355,7 +24083,7 @@
       <c r="J31">
         <v>19.99</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" t="s">
         <v>425</v>
       </c>
       <c r="L31" t="s">
@@ -24405,7 +24133,7 @@
       <c r="J32">
         <v>19.99</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" t="s">
         <v>425</v>
       </c>
       <c r="L32" t="s">
@@ -24458,7 +24186,7 @@
       <c r="J33">
         <v>19.99</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" t="s">
         <v>425</v>
       </c>
       <c r="L33" t="s">
@@ -24498,99 +24226,68 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1"/>
-    <hyperlink ref="M3" r:id="rId2"/>
-    <hyperlink ref="N3" r:id="rId3"/>
-    <hyperlink ref="K4" r:id="rId4"/>
-    <hyperlink ref="M4" r:id="rId5"/>
-    <hyperlink ref="N4" r:id="rId6"/>
-    <hyperlink ref="K5" r:id="rId7"/>
-    <hyperlink ref="M5" r:id="rId8"/>
-    <hyperlink ref="N5" r:id="rId9"/>
-    <hyperlink ref="K6" r:id="rId10"/>
-    <hyperlink ref="M6" r:id="rId11"/>
-    <hyperlink ref="N6" r:id="rId12"/>
-    <hyperlink ref="K7" r:id="rId13"/>
-    <hyperlink ref="M7" r:id="rId14"/>
-    <hyperlink ref="N7" r:id="rId15"/>
-    <hyperlink ref="K8" r:id="rId16"/>
-    <hyperlink ref="M8" r:id="rId17"/>
-    <hyperlink ref="N8" r:id="rId18"/>
-    <hyperlink ref="K9" r:id="rId19"/>
-    <hyperlink ref="M9" r:id="rId20"/>
-    <hyperlink ref="N9" r:id="rId21"/>
-    <hyperlink ref="K10" r:id="rId22"/>
-    <hyperlink ref="M10" r:id="rId23"/>
-    <hyperlink ref="N10" r:id="rId24"/>
-    <hyperlink ref="K11" r:id="rId25"/>
-    <hyperlink ref="M11" r:id="rId26"/>
-    <hyperlink ref="N11" r:id="rId27"/>
-    <hyperlink ref="K12" r:id="rId28"/>
-    <hyperlink ref="M12" r:id="rId29"/>
-    <hyperlink ref="N12" r:id="rId30"/>
-    <hyperlink ref="K13" r:id="rId31"/>
-    <hyperlink ref="M13" r:id="rId32"/>
-    <hyperlink ref="N13" r:id="rId33"/>
-    <hyperlink ref="K14" r:id="rId34"/>
-    <hyperlink ref="M14" r:id="rId35"/>
-    <hyperlink ref="N14" r:id="rId36"/>
-    <hyperlink ref="K15" r:id="rId37"/>
-    <hyperlink ref="M15" r:id="rId38"/>
-    <hyperlink ref="N15" r:id="rId39"/>
-    <hyperlink ref="K16" r:id="rId40"/>
-    <hyperlink ref="M16" r:id="rId41"/>
-    <hyperlink ref="N16" r:id="rId42"/>
-    <hyperlink ref="K17" r:id="rId43"/>
-    <hyperlink ref="M17" r:id="rId44"/>
-    <hyperlink ref="N17" r:id="rId45"/>
-    <hyperlink ref="K18" r:id="rId46"/>
-    <hyperlink ref="M18" r:id="rId47"/>
-    <hyperlink ref="N18" r:id="rId48"/>
-    <hyperlink ref="K19" r:id="rId49"/>
-    <hyperlink ref="M19" r:id="rId50"/>
-    <hyperlink ref="N19" r:id="rId51"/>
-    <hyperlink ref="K20" r:id="rId52"/>
-    <hyperlink ref="M20" r:id="rId53"/>
-    <hyperlink ref="N20" r:id="rId54"/>
-    <hyperlink ref="K21" r:id="rId55"/>
-    <hyperlink ref="M21" r:id="rId56"/>
-    <hyperlink ref="N21" r:id="rId57"/>
-    <hyperlink ref="K22" r:id="rId58"/>
-    <hyperlink ref="M22" r:id="rId59"/>
-    <hyperlink ref="N22" r:id="rId60"/>
-    <hyperlink ref="K23" r:id="rId61"/>
-    <hyperlink ref="M23" r:id="rId62"/>
-    <hyperlink ref="N23" r:id="rId63"/>
-    <hyperlink ref="K24" r:id="rId64"/>
-    <hyperlink ref="M24" r:id="rId65"/>
-    <hyperlink ref="N24" r:id="rId66"/>
-    <hyperlink ref="K25" r:id="rId67"/>
-    <hyperlink ref="M25" r:id="rId68"/>
-    <hyperlink ref="N25" r:id="rId69"/>
-    <hyperlink ref="K26" r:id="rId70"/>
-    <hyperlink ref="M26" r:id="rId71"/>
-    <hyperlink ref="N26" r:id="rId72"/>
-    <hyperlink ref="K27" r:id="rId73"/>
-    <hyperlink ref="M27" r:id="rId74"/>
-    <hyperlink ref="N27" r:id="rId75"/>
-    <hyperlink ref="K28" r:id="rId76"/>
-    <hyperlink ref="M28" r:id="rId77"/>
-    <hyperlink ref="N28" r:id="rId78"/>
-    <hyperlink ref="K29" r:id="rId79"/>
-    <hyperlink ref="M29" r:id="rId80"/>
-    <hyperlink ref="N29" r:id="rId81"/>
-    <hyperlink ref="K30" r:id="rId82"/>
-    <hyperlink ref="M30" r:id="rId83"/>
-    <hyperlink ref="N30" r:id="rId84"/>
-    <hyperlink ref="K31" r:id="rId85"/>
-    <hyperlink ref="M31" r:id="rId86"/>
-    <hyperlink ref="N31" r:id="rId87"/>
-    <hyperlink ref="K32" r:id="rId88"/>
-    <hyperlink ref="M32" r:id="rId89"/>
-    <hyperlink ref="N32" r:id="rId90"/>
-    <hyperlink ref="K33" r:id="rId91"/>
-    <hyperlink ref="M33" r:id="rId92"/>
-    <hyperlink ref="N33" r:id="rId93"/>
+    <hyperlink ref="M3" r:id="rId1"/>
+    <hyperlink ref="N3" r:id="rId2"/>
+    <hyperlink ref="M4" r:id="rId3"/>
+    <hyperlink ref="N4" r:id="rId4"/>
+    <hyperlink ref="M5" r:id="rId5"/>
+    <hyperlink ref="N5" r:id="rId6"/>
+    <hyperlink ref="M6" r:id="rId7"/>
+    <hyperlink ref="N6" r:id="rId8"/>
+    <hyperlink ref="M7" r:id="rId9"/>
+    <hyperlink ref="N7" r:id="rId10"/>
+    <hyperlink ref="M8" r:id="rId11"/>
+    <hyperlink ref="N8" r:id="rId12"/>
+    <hyperlink ref="M9" r:id="rId13"/>
+    <hyperlink ref="N9" r:id="rId14"/>
+    <hyperlink ref="M10" r:id="rId15"/>
+    <hyperlink ref="N10" r:id="rId16"/>
+    <hyperlink ref="M11" r:id="rId17"/>
+    <hyperlink ref="N11" r:id="rId18"/>
+    <hyperlink ref="M12" r:id="rId19"/>
+    <hyperlink ref="N12" r:id="rId20"/>
+    <hyperlink ref="M13" r:id="rId21"/>
+    <hyperlink ref="N13" r:id="rId22"/>
+    <hyperlink ref="M14" r:id="rId23"/>
+    <hyperlink ref="N14" r:id="rId24"/>
+    <hyperlink ref="M15" r:id="rId25"/>
+    <hyperlink ref="N15" r:id="rId26"/>
+    <hyperlink ref="M16" r:id="rId27"/>
+    <hyperlink ref="N16" r:id="rId28"/>
+    <hyperlink ref="M17" r:id="rId29"/>
+    <hyperlink ref="N17" r:id="rId30"/>
+    <hyperlink ref="M18" r:id="rId31"/>
+    <hyperlink ref="N18" r:id="rId32"/>
+    <hyperlink ref="M19" r:id="rId33"/>
+    <hyperlink ref="N19" r:id="rId34"/>
+    <hyperlink ref="M20" r:id="rId35"/>
+    <hyperlink ref="N20" r:id="rId36"/>
+    <hyperlink ref="M21" r:id="rId37"/>
+    <hyperlink ref="N21" r:id="rId38"/>
+    <hyperlink ref="M22" r:id="rId39"/>
+    <hyperlink ref="N22" r:id="rId40"/>
+    <hyperlink ref="M23" r:id="rId41"/>
+    <hyperlink ref="N23" r:id="rId42"/>
+    <hyperlink ref="M24" r:id="rId43"/>
+    <hyperlink ref="N24" r:id="rId44"/>
+    <hyperlink ref="M25" r:id="rId45"/>
+    <hyperlink ref="N25" r:id="rId46"/>
+    <hyperlink ref="M26" r:id="rId47"/>
+    <hyperlink ref="N26" r:id="rId48"/>
+    <hyperlink ref="M27" r:id="rId49"/>
+    <hyperlink ref="N27" r:id="rId50"/>
+    <hyperlink ref="M28" r:id="rId51"/>
+    <hyperlink ref="N28" r:id="rId52"/>
+    <hyperlink ref="M29" r:id="rId53"/>
+    <hyperlink ref="N29" r:id="rId54"/>
+    <hyperlink ref="M30" r:id="rId55"/>
+    <hyperlink ref="N30" r:id="rId56"/>
+    <hyperlink ref="M31" r:id="rId57"/>
+    <hyperlink ref="N31" r:id="rId58"/>
+    <hyperlink ref="M32" r:id="rId59"/>
+    <hyperlink ref="N32" r:id="rId60"/>
+    <hyperlink ref="M33" r:id="rId61"/>
+    <hyperlink ref="N33" r:id="rId62"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
